--- a/data/Unifac-2017.xlsx
+++ b/data/Unifac-2017.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDrive\UNAL\2017\TRABAJO FINAL\Java\CAMD-nuHAEA\src\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDrive\UNAL\2017\TRABAJO FINAL\Java\CAMD-nuHAEA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" xr2:uid="{69F665D0-AFCD-4318-ABBD-3D289C6C1BA1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="1" xr2:uid="{69F665D0-AFCD-4318-ABBD-3D289C6C1BA1}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIFAC-DORTMUND-Interactions" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="171">
   <si>
     <t>i</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Subgroup Name</t>
-  </si>
-  <si>
-    <t>Main Group No.</t>
   </si>
   <si>
     <t>Main Group Name</t>
@@ -541,10 +538,7 @@
     <t>C5H4N+</t>
   </si>
   <si>
-    <t>Main Group No</t>
-  </si>
-  <si>
-    <t/>
+    <t>Main Group</t>
   </si>
 </sst>
 </file>
@@ -1003,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{654D54EF-150D-49A8-8961-B65478CD1410}">
   <dimension ref="A1:H757"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A716" workbookViewId="0">
-      <selection activeCell="K725" sqref="K725"/>
+    <sheetView topLeftCell="A679" workbookViewId="0">
+      <selection activeCell="C694" sqref="C694"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17753,48 +17747,46 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE23D229-E5EF-41E6-84E9-F397290C260A}">
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -17802,91 +17794,79 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2">
-        <v>1</v>
+        <v>0.63249999999999995</v>
       </c>
       <c r="F2" s="2">
-        <v>0.63249999999999995</v>
-      </c>
-      <c r="G2" s="2">
         <v>1.0608</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>172</v>
+      <c r="B3" s="2">
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2">
-        <v>1</v>
+        <v>0.63249999999999995</v>
       </c>
       <c r="F3" s="2">
-        <v>0.63249999999999995</v>
-      </c>
-      <c r="G3" s="2">
         <v>0.70809999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>172</v>
+      <c r="B4" s="2">
+        <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E4" s="2">
-        <v>1</v>
+        <v>0.63249999999999995</v>
       </c>
       <c r="F4" s="2">
-        <v>0.63249999999999995</v>
-      </c>
-      <c r="G4" s="2">
         <v>0.35539999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>172</v>
+      <c r="B5" s="2">
+        <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2">
-        <v>1</v>
+        <v>0.63249999999999995</v>
       </c>
       <c r="F5" s="2">
-        <v>0.63249999999999995</v>
-      </c>
-      <c r="G5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -17894,91 +17874,79 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2">
-        <v>2</v>
+        <v>1.2831999999999999</v>
       </c>
       <c r="F6" s="2">
-        <v>1.2831999999999999</v>
-      </c>
-      <c r="G6" s="2">
         <v>1.6015999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>172</v>
+      <c r="B7" s="2">
+        <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="E7" s="2">
-        <v>2</v>
+        <v>1.2831999999999999</v>
       </c>
       <c r="F7" s="2">
-        <v>1.2831999999999999</v>
-      </c>
-      <c r="G7" s="2">
         <v>1.2488999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>172</v>
+      <c r="B8" s="2">
+        <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2">
-        <v>2</v>
+        <v>1.2831999999999999</v>
       </c>
       <c r="F8" s="2">
-        <v>1.2831999999999999</v>
-      </c>
-      <c r="G8" s="2">
         <v>1.2488999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>172</v>
+      <c r="B9" s="2">
+        <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="2">
-        <v>2</v>
+        <v>1.2831999999999999</v>
       </c>
       <c r="F9" s="2">
-        <v>1.2831999999999999</v>
-      </c>
-      <c r="G9" s="2">
         <v>0.8962</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -17986,45 +17954,39 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="2">
-        <v>3</v>
+        <v>0.37630000000000002</v>
       </c>
       <c r="F10" s="2">
-        <v>0.37630000000000002</v>
-      </c>
-      <c r="G10" s="2">
         <v>0.43209999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>172</v>
+      <c r="B11" s="2">
+        <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E11" s="2">
-        <v>3</v>
+        <v>0.37630000000000002</v>
       </c>
       <c r="F11" s="2">
-        <v>0.37630000000000002</v>
-      </c>
-      <c r="G11" s="2">
         <v>0.21129999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -18032,68 +17994,59 @@
         <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="2">
-        <v>4</v>
+        <v>0.91</v>
       </c>
       <c r="F12" s="2">
-        <v>0.91</v>
-      </c>
-      <c r="G12" s="2">
         <v>0.94899999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>172</v>
+      <c r="B13" s="2">
+        <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2">
-        <v>4</v>
+        <v>0.91</v>
       </c>
       <c r="F13" s="2">
-        <v>0.91</v>
-      </c>
-      <c r="G13" s="2">
         <v>0.79620000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>172</v>
+      <c r="B14" s="2">
+        <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="E14" s="2">
-        <v>4</v>
+        <v>0.91</v>
       </c>
       <c r="F14" s="2">
-        <v>0.91</v>
-      </c>
-      <c r="G14" s="2">
         <v>0.37690000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -18101,22 +18054,19 @@
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2">
-        <v>5</v>
+        <v>1.2302</v>
       </c>
       <c r="F15" s="2">
-        <v>1.2302</v>
-      </c>
-      <c r="G15" s="2">
         <v>0.89270000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -18124,22 +18074,19 @@
         <v>6</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2">
-        <v>6</v>
+        <v>0.85850000000000004</v>
       </c>
       <c r="F16" s="2">
-        <v>0.85850000000000004</v>
-      </c>
-      <c r="G16" s="2">
         <v>0.99380000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -18147,22 +18094,19 @@
         <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2">
-        <v>7</v>
+        <v>1.7334000000000001</v>
       </c>
       <c r="F17" s="2">
-        <v>1.7334000000000001</v>
-      </c>
-      <c r="G17" s="2">
         <v>2.4561000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -18170,22 +18114,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" s="2">
-        <v>8</v>
+        <v>1.08</v>
       </c>
       <c r="F18" s="2">
-        <v>1.08</v>
-      </c>
-      <c r="G18" s="2">
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -18193,45 +18134,39 @@
         <v>9</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" s="2">
-        <v>9</v>
+        <v>1.7048000000000001</v>
       </c>
       <c r="F19" s="2">
-        <v>1.7048000000000001</v>
-      </c>
-      <c r="G19" s="2">
         <v>1.67</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>172</v>
+      <c r="B20" s="2">
+        <v>9</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" s="2">
-        <v>9</v>
+        <v>1.7048000000000001</v>
       </c>
       <c r="F20" s="2">
-        <v>1.7048000000000001</v>
-      </c>
-      <c r="G20" s="2">
         <v>1.5542</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -18239,22 +18174,19 @@
         <v>10</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E21" s="2">
-        <v>10</v>
+        <v>0.71730000000000005</v>
       </c>
       <c r="F21" s="2">
-        <v>0.71730000000000005</v>
-      </c>
-      <c r="G21" s="2">
         <v>0.77100000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -18262,45 +18194,39 @@
         <v>11</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" s="2">
-        <v>11</v>
+        <v>1.27</v>
       </c>
       <c r="F22" s="2">
-        <v>1.27</v>
-      </c>
-      <c r="G22" s="2">
         <v>1.6286</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>172</v>
+      <c r="B23" s="2">
+        <v>11</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="E23" s="2">
-        <v>11</v>
+        <v>1.27</v>
       </c>
       <c r="F23" s="2">
-        <v>1.27</v>
-      </c>
-      <c r="G23" s="2">
         <v>1.4228000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -18308,22 +18234,19 @@
         <v>12</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24" s="2">
-        <v>12</v>
+        <v>1.9</v>
       </c>
       <c r="F24" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="G24" s="2">
         <v>1.8</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -18331,2341 +18254,2035 @@
         <v>13</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E25" s="2">
-        <v>13</v>
+        <v>1.1434</v>
       </c>
       <c r="F25" s="2">
-        <v>1.1434</v>
-      </c>
-      <c r="G25" s="2">
         <v>1.6022000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>172</v>
+      <c r="B26" s="2">
+        <v>13</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E26" s="2">
-        <v>13</v>
+        <v>1.1434</v>
       </c>
       <c r="F26" s="2">
-        <v>1.1434</v>
-      </c>
-      <c r="G26" s="2">
         <v>1.2495000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>172</v>
+      <c r="B27" s="2">
+        <v>13</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E27" s="2">
-        <v>13</v>
+        <v>1.1434</v>
       </c>
       <c r="F27" s="2">
-        <v>1.1434</v>
-      </c>
-      <c r="G27" s="2">
         <v>0.89680000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E28" s="2">
-        <v>43</v>
+        <v>1.7022999999999999</v>
       </c>
       <c r="F28" s="2">
-        <v>1.7022999999999999</v>
-      </c>
-      <c r="G28" s="2">
         <v>1.8784000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E29" s="2">
-        <v>14</v>
+        <v>1.6607000000000001</v>
       </c>
       <c r="F29" s="2">
-        <v>1.6607000000000001</v>
-      </c>
-      <c r="G29" s="2">
         <v>1.6903999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>172</v>
+      <c r="B30" s="2">
+        <v>14</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E30" s="2">
-        <v>14</v>
+        <v>1.6607000000000001</v>
       </c>
       <c r="F30" s="2">
-        <v>1.6607000000000001</v>
-      </c>
-      <c r="G30" s="2">
         <v>1.3376999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>172</v>
+      <c r="B31" s="2">
+        <v>14</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="E31" s="2">
-        <v>14</v>
+        <v>1.6607000000000001</v>
       </c>
       <c r="F31" s="2">
-        <v>1.6607000000000001</v>
-      </c>
-      <c r="G31" s="2">
         <v>0.98499999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E32" s="2">
-        <v>15</v>
+        <v>1.3680000000000001</v>
       </c>
       <c r="F32" s="2">
-        <v>1.3680000000000001</v>
-      </c>
-      <c r="G32" s="2">
         <v>1.4332</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>172</v>
+      <c r="B33" s="2">
+        <v>15</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E33" s="2">
-        <v>15</v>
+        <v>1.3680000000000001</v>
       </c>
       <c r="F33" s="2">
-        <v>1.3680000000000001</v>
-      </c>
-      <c r="G33" s="2">
         <v>1.0805</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>172</v>
+      <c r="B34" s="2">
+        <v>15</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="E34" s="2">
-        <v>15</v>
+        <v>1.3680000000000001</v>
       </c>
       <c r="F34" s="2">
-        <v>1.3680000000000001</v>
-      </c>
-      <c r="G34" s="2">
         <v>0.7278</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E35" s="2">
-        <v>16</v>
+        <v>1.0746</v>
       </c>
       <c r="F35" s="2">
-        <v>1.0746</v>
-      </c>
-      <c r="G35" s="2">
         <v>1.1759999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>172</v>
+      <c r="B36" s="2">
+        <v>16</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="E36" s="2">
-        <v>16</v>
+        <v>1.0746</v>
       </c>
       <c r="F36" s="2">
-        <v>1.0746</v>
-      </c>
-      <c r="G36" s="2">
         <v>0.82399999999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E37" s="2">
-        <v>17</v>
+        <v>1.1849000000000001</v>
       </c>
       <c r="F37" s="2">
-        <v>1.1849000000000001</v>
-      </c>
-      <c r="G37" s="2">
         <v>0.80669999999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E38" s="2">
-        <v>18</v>
+        <v>1.4578</v>
       </c>
       <c r="F38" s="2">
-        <v>1.4578</v>
-      </c>
-      <c r="G38" s="2">
         <v>0.9022</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>172</v>
+      <c r="B39" s="2">
+        <v>18</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="E39" s="2">
-        <v>18</v>
+        <v>1.2393000000000001</v>
       </c>
       <c r="F39" s="2">
-        <v>1.2393000000000001</v>
-      </c>
-      <c r="G39" s="2">
         <v>0.63300000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>172</v>
+      <c r="B40" s="2">
+        <v>18</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E40" s="2">
-        <v>18</v>
+        <v>1.0730999999999999</v>
       </c>
       <c r="F40" s="2">
-        <v>1.0730999999999999</v>
-      </c>
-      <c r="G40" s="2">
         <v>0.35299999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E41" s="2">
-        <v>19</v>
+        <v>1.5575000000000001</v>
       </c>
       <c r="F41" s="2">
-        <v>1.5575000000000001</v>
-      </c>
-      <c r="G41" s="2">
         <v>1.5193000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>172</v>
+      <c r="B42" s="2">
+        <v>19</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E42" s="2">
-        <v>19</v>
+        <v>1.5575000000000001</v>
       </c>
       <c r="F42" s="2">
-        <v>1.5575000000000001</v>
-      </c>
-      <c r="G42" s="2">
         <v>1.1666000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E43" s="2">
-        <v>20</v>
+        <v>0.8</v>
       </c>
       <c r="F43" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="G43" s="2">
         <v>0.92149999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="2">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E44" s="2">
-        <v>44</v>
+        <v>0.8</v>
       </c>
       <c r="F44" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="G44" s="2">
         <v>1.2742</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E45" s="2">
-        <v>21</v>
+        <v>0.9919</v>
       </c>
       <c r="F45" s="2">
-        <v>0.9919</v>
-      </c>
-      <c r="G45" s="2">
         <v>1.3653999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>172</v>
+      <c r="B46" s="2">
+        <v>21</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="E46" s="2">
-        <v>21</v>
+        <v>0.9919</v>
       </c>
       <c r="F46" s="2">
-        <v>0.9919</v>
-      </c>
-      <c r="G46" s="2">
         <v>1.0126999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>172</v>
+      <c r="B47" s="2">
+        <v>21</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E47" s="2">
-        <v>21</v>
+        <v>0.9919</v>
       </c>
       <c r="F47" s="2">
-        <v>0.9919</v>
-      </c>
-      <c r="G47" s="2">
         <v>0.66</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E48" s="2">
-        <v>22</v>
+        <v>1.8</v>
       </c>
       <c r="F48" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="G48" s="2">
         <v>2.5</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>172</v>
+      <c r="B49" s="2">
+        <v>22</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="E49" s="2">
-        <v>22</v>
+        <v>1.8</v>
       </c>
       <c r="F49" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="G49" s="2">
         <v>2.1473</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>172</v>
+      <c r="B50" s="2">
+        <v>22</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E50" s="2">
-        <v>22</v>
+        <v>1.8</v>
       </c>
       <c r="F50" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="G50" s="2">
         <v>1.7946</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="2">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E51" s="2">
-        <v>45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="F51" s="2">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="G51" s="2">
         <v>2.8912</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="2">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E52" s="2">
-        <v>23</v>
+        <v>2.65</v>
       </c>
       <c r="F52" s="2">
-        <v>2.65</v>
-      </c>
-      <c r="G52" s="2">
         <v>2.3778000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53" s="2">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E53" s="2">
-        <v>24</v>
+        <v>2.6179999999999999</v>
       </c>
       <c r="F53" s="2">
-        <v>2.6179999999999999</v>
-      </c>
-      <c r="G53" s="2">
         <v>3.1836000000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="2">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E54" s="2">
-        <v>25</v>
+        <v>0.53649999999999998</v>
       </c>
       <c r="F54" s="2">
-        <v>0.53649999999999998</v>
-      </c>
-      <c r="G54" s="2">
         <v>0.31769999999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
       <c r="B55" s="2">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E55" s="2">
-        <v>26</v>
+        <v>2.6440000000000001</v>
       </c>
       <c r="F55" s="2">
-        <v>2.6440000000000001</v>
-      </c>
-      <c r="G55" s="2">
         <v>2.5</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>172</v>
+      <c r="B56" s="2">
+        <v>26</v>
       </c>
       <c r="C56" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="E56" s="2">
-        <v>26</v>
+        <v>2.5</v>
       </c>
       <c r="F56" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="G56" s="2">
         <v>2.3039999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>172</v>
+      <c r="B57" s="2">
+        <v>26</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E57" s="2">
-        <v>26</v>
+        <v>2.887</v>
       </c>
       <c r="F57" s="2">
-        <v>2.887</v>
-      </c>
-      <c r="G57" s="2">
         <v>2.2410000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E58" s="2">
-        <v>27</v>
+        <v>0.46560000000000001</v>
       </c>
       <c r="F58" s="2">
-        <v>0.46560000000000001</v>
-      </c>
-      <c r="G58" s="2">
         <v>0.3589</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
       <c r="B59" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E59" s="2">
-        <v>28</v>
+        <v>1.24</v>
       </c>
       <c r="F59" s="2">
-        <v>1.24</v>
-      </c>
-      <c r="G59" s="2">
         <v>1.0680000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E60" s="2">
-        <v>29</v>
+        <v>1.2889999999999999</v>
       </c>
       <c r="F60" s="2">
-        <v>1.2889999999999999</v>
-      </c>
-      <c r="G60" s="2">
         <v>1.762</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>60</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>172</v>
+      <c r="B61" s="2">
+        <v>29</v>
       </c>
       <c r="C61" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="E61" s="2">
-        <v>29</v>
+        <v>1.5349999999999999</v>
       </c>
       <c r="F61" s="2">
-        <v>1.5349999999999999</v>
-      </c>
-      <c r="G61" s="2">
         <v>1.3160000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E62" s="2">
-        <v>30</v>
+        <v>1.2989999999999999</v>
       </c>
       <c r="F62" s="2">
-        <v>1.2989999999999999</v>
-      </c>
-      <c r="G62" s="2">
         <v>1.2889999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>62</v>
       </c>
       <c r="B63" s="2">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="2">
-        <v>31</v>
+        <v>2.0880000000000001</v>
       </c>
       <c r="F63" s="2">
-        <v>2.0880000000000001</v>
-      </c>
-      <c r="G63" s="2">
         <v>2.4</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>63</v>
       </c>
       <c r="B64" s="2">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E64" s="2">
-        <v>32</v>
+        <v>1.0760000000000001</v>
       </c>
       <c r="F64" s="2">
-        <v>1.0760000000000001</v>
-      </c>
-      <c r="G64" s="2">
         <v>0.91690000000000005</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>64</v>
       </c>
       <c r="B65" s="2">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E65" s="2">
-        <v>33</v>
+        <v>1.2090000000000001</v>
       </c>
       <c r="F65" s="2">
-        <v>1.2090000000000001</v>
-      </c>
-      <c r="G65" s="2">
         <v>1.4</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>65</v>
       </c>
       <c r="B66" s="2">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2">
-        <v>34</v>
+        <v>0.9214</v>
       </c>
       <c r="F66" s="2">
-        <v>0.9214</v>
-      </c>
-      <c r="G66" s="2">
         <v>1.3</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>66</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>172</v>
+      <c r="B67" s="2">
+        <v>34</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2">
-        <v>34</v>
+        <v>1.3029999999999999</v>
       </c>
       <c r="F67" s="2">
-        <v>1.3029999999999999</v>
-      </c>
-      <c r="G67" s="2">
         <v>1.1319999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>67</v>
       </c>
       <c r="B68" s="2">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E68" s="2">
-        <v>35</v>
+        <v>3.6</v>
       </c>
       <c r="F68" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="G68" s="2">
         <v>2.6920000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>68</v>
       </c>
       <c r="B69" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E69" s="2">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="F69" s="2">
-        <v>1</v>
-      </c>
-      <c r="G69" s="2">
         <v>0.92</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>69</v>
       </c>
       <c r="B70" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E70" s="2">
-        <v>37</v>
+        <v>0.52290000000000003</v>
       </c>
       <c r="F70" s="2">
-        <v>0.52290000000000003</v>
-      </c>
-      <c r="G70" s="2">
         <v>0.73909999999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>70</v>
       </c>
       <c r="B71" s="2">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E71" s="2">
-        <v>2</v>
+        <v>1.2831999999999999</v>
       </c>
       <c r="F71" s="2">
-        <v>1.2831999999999999</v>
-      </c>
-      <c r="G71" s="2">
         <v>0.4582</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>71</v>
       </c>
       <c r="B72" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E72" s="2">
-        <v>38</v>
+        <v>0.88139999999999996</v>
       </c>
       <c r="F72" s="2">
-        <v>0.88139999999999996</v>
-      </c>
-      <c r="G72" s="2">
         <v>0.72689999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>72</v>
       </c>
       <c r="B73" s="2">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E73" s="2">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="F73" s="2">
-        <v>2</v>
-      </c>
-      <c r="G73" s="2">
         <v>2.093</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>73</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>172</v>
+      <c r="B74" s="2">
+        <v>39</v>
       </c>
       <c r="C74" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="E74" s="2">
-        <v>39</v>
+        <v>2.3809999999999998</v>
       </c>
       <c r="F74" s="2">
-        <v>2.3809999999999998</v>
-      </c>
-      <c r="G74" s="2">
         <v>1.522</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>74</v>
       </c>
       <c r="B75" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E75" s="2">
-        <v>40</v>
+        <v>1.284</v>
       </c>
       <c r="F75" s="2">
-        <v>1.284</v>
-      </c>
-      <c r="G75" s="2">
         <v>1.266</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>75</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>172</v>
+      <c r="B76" s="2">
+        <v>40</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E76" s="2">
-        <v>40</v>
+        <v>1.284</v>
       </c>
       <c r="F76" s="2">
-        <v>1.284</v>
-      </c>
-      <c r="G76" s="2">
         <v>1.0980000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>76</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>172</v>
+      <c r="B77" s="2">
+        <v>40</v>
       </c>
       <c r="C77" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="E77" s="2">
-        <v>40</v>
+        <v>0.82150000000000001</v>
       </c>
       <c r="F77" s="2">
-        <v>0.82150000000000001</v>
-      </c>
-      <c r="G77" s="2">
         <v>0.51349999999999996</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>77</v>
       </c>
       <c r="B78" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E78" s="2">
-        <v>41</v>
+        <v>1.6</v>
       </c>
       <c r="F78" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="G78" s="2">
         <v>0.9</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>78</v>
       </c>
       <c r="B79" s="2">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E79" s="2">
-        <v>42</v>
+        <v>0.71360000000000001</v>
       </c>
       <c r="F79" s="2">
-        <v>0.71360000000000001</v>
-      </c>
-      <c r="G79" s="2">
         <v>0.86350000000000005</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>79</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>172</v>
+      <c r="B80" s="2">
+        <v>42</v>
       </c>
       <c r="C80" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E80" s="2">
-        <v>42</v>
+        <v>0.34789999999999999</v>
       </c>
       <c r="F80" s="2">
-        <v>0.34789999999999999</v>
-      </c>
-      <c r="G80" s="2">
         <v>0.1071</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>80</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>172</v>
+      <c r="B81" s="2">
+        <v>42</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E81" s="2">
-        <v>42</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="F81" s="2">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="G81" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>81</v>
       </c>
       <c r="B82" s="2">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E82" s="2">
-        <v>5</v>
+        <v>1.0629999999999999</v>
       </c>
       <c r="F82" s="2">
-        <v>1.0629999999999999</v>
-      </c>
-      <c r="G82" s="2">
         <v>0.86629999999999996</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>82</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>172</v>
+      <c r="B83" s="2">
+        <v>5</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E83" s="2">
-        <v>5</v>
+        <v>0.6895</v>
       </c>
       <c r="F83" s="2">
-        <v>0.6895</v>
-      </c>
-      <c r="G83" s="2">
         <v>0.83450000000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>83</v>
       </c>
       <c r="B84" s="2">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E84" s="2">
-        <v>43</v>
+        <v>1.4046000000000001</v>
       </c>
       <c r="F84" s="2">
-        <v>1.4046000000000001</v>
-      </c>
-      <c r="G84" s="2">
         <v>1.4</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>84</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>172</v>
+      <c r="B85" s="2">
+        <v>43</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E85" s="2">
-        <v>43</v>
+        <v>1.0412999999999999</v>
       </c>
       <c r="F85" s="2">
-        <v>1.0412999999999999</v>
-      </c>
-      <c r="G85" s="2">
         <v>1.0116000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>85</v>
       </c>
       <c r="B86" s="2">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E86" s="2">
-        <v>14</v>
+        <v>1.6607000000000001</v>
       </c>
       <c r="F86" s="2">
-        <v>1.6607000000000001</v>
-      </c>
-      <c r="G86" s="2">
         <v>0.98499999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>86</v>
       </c>
       <c r="B87" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E87" s="2">
-        <v>46</v>
+        <v>3.9809999999999999</v>
       </c>
       <c r="F87" s="2">
-        <v>3.9809999999999999</v>
-      </c>
-      <c r="G87" s="2">
         <v>3.2</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>87</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>172</v>
+      <c r="B88" s="2">
+        <v>46</v>
       </c>
       <c r="C88" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="E88" s="2">
-        <v>46</v>
+        <v>3.7543000000000002</v>
       </c>
       <c r="F88" s="2">
-        <v>3.7543000000000002</v>
-      </c>
-      <c r="G88" s="2">
         <v>2.8919999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>88</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>172</v>
+      <c r="B89" s="2">
+        <v>46</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E89" s="2">
-        <v>46</v>
+        <v>3.5268000000000002</v>
       </c>
       <c r="F89" s="2">
-        <v>3.5268000000000002</v>
-      </c>
-      <c r="G89" s="2">
         <v>2.58</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>89</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>172</v>
+      <c r="B90" s="2">
+        <v>46</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E90" s="2">
-        <v>46</v>
+        <v>3.2993999999999999</v>
       </c>
       <c r="F90" s="2">
-        <v>3.2993999999999999</v>
-      </c>
-      <c r="G90" s="2">
         <v>2.3519999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>91</v>
       </c>
       <c r="B91" s="2">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E91" s="2">
-        <v>47</v>
+        <v>1.4515</v>
       </c>
       <c r="F91" s="2">
-        <v>1.4515</v>
-      </c>
-      <c r="G91" s="2">
         <v>1.248</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>92</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>172</v>
+      <c r="B92" s="2">
+        <v>47</v>
       </c>
       <c r="C92" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E92" s="2">
-        <v>47</v>
+        <v>1.5</v>
       </c>
       <c r="F92" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="G92" s="2">
         <v>1.08</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>93</v>
       </c>
       <c r="B93" s="2">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E93" s="2">
-        <v>49</v>
+        <v>2.4617</v>
       </c>
       <c r="F93" s="2">
-        <v>2.4617</v>
-      </c>
-      <c r="G93" s="2">
         <v>2.1920000000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>94</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>172</v>
+      <c r="B94" s="2">
+        <v>49</v>
       </c>
       <c r="C94" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="E94" s="2">
-        <v>49</v>
+        <v>2.4617</v>
       </c>
       <c r="F94" s="2">
-        <v>2.4617</v>
-      </c>
-      <c r="G94" s="2">
         <v>1.8420000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>100</v>
       </c>
       <c r="B95" s="2">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E95" s="2">
-        <v>47</v>
+        <v>1.5</v>
       </c>
       <c r="F95" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="G95" s="2">
         <v>1.08</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>101</v>
       </c>
       <c r="B96" s="2">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E96" s="2">
-        <v>48</v>
+        <v>2.4748000000000001</v>
       </c>
       <c r="F96" s="2">
-        <v>2.4748000000000001</v>
-      </c>
-      <c r="G96" s="2">
         <v>1.9642999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>102</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>172</v>
+      <c r="B97" s="2">
+        <v>48</v>
       </c>
       <c r="C97" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E97" s="2">
-        <v>48</v>
+        <v>2.2738999999999998</v>
       </c>
       <c r="F97" s="2">
-        <v>2.2738999999999998</v>
-      </c>
-      <c r="G97" s="2">
         <v>1.5753999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>103</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>172</v>
+      <c r="B98" s="2">
+        <v>48</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E98" s="2">
-        <v>48</v>
+        <v>2.0767000000000002</v>
       </c>
       <c r="F98" s="2">
-        <v>2.0767000000000002</v>
-      </c>
-      <c r="G98" s="2">
         <v>1.1866000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>104</v>
       </c>
       <c r="B99" s="2">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E99" s="2">
-        <v>52</v>
+        <v>1.7943</v>
       </c>
       <c r="F99" s="2">
-        <v>1.7943</v>
-      </c>
-      <c r="G99" s="2">
         <v>1.34</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>105</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>172</v>
+      <c r="B100" s="2">
+        <v>52</v>
       </c>
       <c r="C100" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E100" s="2">
-        <v>52</v>
+        <v>1.6282000000000001</v>
       </c>
       <c r="F100" s="2">
-        <v>1.6282000000000001</v>
-      </c>
-      <c r="G100" s="2">
         <v>1.06</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>106</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>172</v>
+      <c r="B101" s="2">
+        <v>52</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E101" s="2">
-        <v>52</v>
+        <v>1.4621</v>
       </c>
       <c r="F101" s="2">
-        <v>1.4621</v>
-      </c>
-      <c r="G101" s="2">
         <v>0.78</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>107</v>
       </c>
       <c r="B102" s="2">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E102" s="2">
-        <v>53</v>
+        <v>1.3601000000000001</v>
       </c>
       <c r="F102" s="2">
-        <v>1.3601000000000001</v>
-      </c>
-      <c r="G102" s="2">
         <v>1.8030999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>108</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>172</v>
+      <c r="B103" s="2">
+        <v>53</v>
       </c>
       <c r="C103" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="E103" s="2">
-        <v>53</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="F103" s="2">
-        <v>0.68300000000000005</v>
-      </c>
-      <c r="G103" s="2">
         <v>0.34179999999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>109</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>172</v>
+      <c r="B104" s="2">
+        <v>53</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E104" s="2">
-        <v>53</v>
+        <v>0.91039999999999999</v>
       </c>
       <c r="F104" s="2">
-        <v>0.91039999999999999</v>
-      </c>
-      <c r="G104" s="2">
         <v>0.65380000000000005</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>110</v>
       </c>
       <c r="B105" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E105" s="2">
-        <v>56</v>
+        <v>2.6869999999999998</v>
       </c>
       <c r="F105" s="2">
-        <v>2.6869999999999998</v>
-      </c>
-      <c r="G105" s="2">
         <v>2.12</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>111</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>172</v>
+      <c r="B106" s="2">
+        <v>56</v>
       </c>
       <c r="C106" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E106" s="2">
-        <v>56</v>
+        <v>2.46</v>
       </c>
       <c r="F106" s="2">
-        <v>2.46</v>
-      </c>
-      <c r="G106" s="2">
         <v>1.8080000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>112</v>
       </c>
       <c r="B107" s="2">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E107" s="2">
-        <v>55</v>
+        <v>2.42</v>
       </c>
       <c r="F107" s="2">
-        <v>2.42</v>
-      </c>
-      <c r="G107" s="2">
         <v>2.4975999999999998</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>113</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>172</v>
+      <c r="B108" s="2">
+        <v>55</v>
       </c>
       <c r="C108" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="E108" s="2">
-        <v>55</v>
+        <v>2.42</v>
       </c>
       <c r="F108" s="2">
-        <v>2.42</v>
-      </c>
-      <c r="G108" s="2">
         <v>2.0017999999999998</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>114</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>172</v>
+      <c r="B109" s="2">
+        <v>55</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E109" s="2">
-        <v>55</v>
+        <v>2.42</v>
       </c>
       <c r="F109" s="2">
-        <v>2.42</v>
-      </c>
-      <c r="G109" s="2">
         <v>2.2496999999999998</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>119</v>
       </c>
       <c r="B110" s="2">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E110" s="2">
-        <v>53</v>
+        <v>1.0629999999999999</v>
       </c>
       <c r="F110" s="2">
-        <v>1.0629999999999999</v>
-      </c>
-      <c r="G110" s="2">
         <v>1.123</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>122</v>
       </c>
       <c r="B111" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E111" s="2">
-        <v>61</v>
+        <v>1.613</v>
       </c>
       <c r="F111" s="2">
-        <v>1.613</v>
-      </c>
-      <c r="G111" s="2">
         <v>1.3680000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>123</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>172</v>
+      <c r="B112" s="2">
+        <v>61</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E112" s="2">
-        <v>61</v>
+        <v>1.3863000000000001</v>
       </c>
       <c r="F112" s="2">
-        <v>1.3863000000000001</v>
-      </c>
-      <c r="G112" s="2">
         <v>1.06</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>124</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>172</v>
+      <c r="B113" s="2">
+        <v>61</v>
       </c>
       <c r="C113" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D113" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="E113" s="2">
-        <v>61</v>
+        <v>1.1589</v>
       </c>
       <c r="F113" s="2">
-        <v>1.1589</v>
-      </c>
-      <c r="G113" s="2">
         <v>0.748</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>153</v>
       </c>
       <c r="B114" s="2">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E114" s="2">
-        <v>53</v>
+        <v>0.91039999999999999</v>
       </c>
       <c r="F114" s="2">
-        <v>0.91039999999999999</v>
-      </c>
-      <c r="G114" s="2">
         <v>0.65380000000000005</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>178</v>
       </c>
       <c r="B115" s="2">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E115" s="2">
-        <v>84</v>
+        <v>1.3662000000000001</v>
       </c>
       <c r="F115" s="2">
-        <v>1.3662000000000001</v>
-      </c>
-      <c r="G115" s="2">
         <v>0.67969999999999997</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>179</v>
       </c>
       <c r="B116" s="2">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E116" s="2">
-        <v>85</v>
+        <v>5.6210000000000004</v>
       </c>
       <c r="F116" s="2">
-        <v>5.6210000000000004</v>
-      </c>
-      <c r="G116" s="2">
         <v>5.9462999999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>184</v>
       </c>
       <c r="B117" s="2">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E117" s="2">
-        <v>84</v>
+        <v>1.843</v>
       </c>
       <c r="F117" s="2">
-        <v>1.843</v>
-      </c>
-      <c r="G117" s="2">
         <v>1.6997</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>189</v>
       </c>
       <c r="B118" s="2">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E118" s="2">
-        <v>87</v>
+        <v>2.7867000000000002</v>
       </c>
       <c r="F118" s="2">
-        <v>2.7867000000000002</v>
-      </c>
-      <c r="G118" s="2">
         <v>2.7723</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>195</v>
       </c>
       <c r="B119" s="2">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E119" s="2">
-        <v>89</v>
+        <v>3.9628000000000001</v>
       </c>
       <c r="F119" s="2">
-        <v>3.9628000000000001</v>
-      </c>
-      <c r="G119" s="2">
         <v>0.62139999999999995</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>196</v>
       </c>
       <c r="B120" s="2">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E120" s="2">
-        <v>90</v>
+        <v>2.1093999999999999</v>
       </c>
       <c r="F120" s="2">
-        <v>2.1093999999999999</v>
-      </c>
-      <c r="G120" s="2">
         <v>2.5106000000000002</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>197</v>
       </c>
       <c r="B121" s="2">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E121" s="2">
-        <v>91</v>
+        <v>3.371</v>
       </c>
       <c r="F121" s="2">
-        <v>3.371</v>
-      </c>
-      <c r="G121" s="2">
         <v>2.0001000000000002</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>201</v>
       </c>
-      <c r="B122" s="2">
-        <v>69</v>
+      <c r="B122" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F122" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G122" s="2">
+      <c r="F122" s="2">
         <v>2.2440000000000002</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>209</v>
       </c>
       <c r="B123" s="2">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E123" s="2">
-        <v>98</v>
+        <v>0.99029999999999996</v>
       </c>
       <c r="F123" s="2">
-        <v>0.99029999999999996</v>
-      </c>
-      <c r="G123" s="2">
         <v>3.5249000000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>210</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>172</v>
+      <c r="B124" s="2">
+        <v>98</v>
       </c>
       <c r="C124" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D124" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="E124" s="2">
-        <v>98</v>
+        <v>1.5653999999999999</v>
       </c>
       <c r="F124" s="2">
-        <v>1.5653999999999999</v>
-      </c>
-      <c r="G124" s="2">
         <v>3.8075999999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>211</v>
       </c>
       <c r="B125" s="2">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E125" s="2">
-        <v>99</v>
+        <v>3.8182999999999998</v>
       </c>
       <c r="F125" s="2">
-        <v>3.8182999999999998</v>
-      </c>
-      <c r="G125" s="2">
         <v>3.6017999999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>220</v>
       </c>
       <c r="B126" s="2">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E126" s="2">
-        <v>90</v>
+        <v>2.4872999999999998</v>
       </c>
       <c r="F126" s="2">
-        <v>2.4872999999999998</v>
-      </c>
-      <c r="G126" s="2">
         <v>2.4457</v>
       </c>
     </row>

--- a/data/Unifac-2017.xlsx
+++ b/data/Unifac-2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="1" xr2:uid="{69F665D0-AFCD-4318-ABBD-3D289C6C1BA1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" firstSheet="1" activeTab="1" xr2:uid="{69F665D0-AFCD-4318-ABBD-3D289C6C1BA1}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIFAC-DORTMUND-Interactions" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="169">
   <si>
     <t>i</t>
   </si>
@@ -520,12 +520,6 @@
     <t>-S-S-</t>
   </si>
   <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>1.0678</t>
-  </si>
-  <si>
     <t>SO4</t>
   </si>
   <si>
@@ -17755,8 +17749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE23D229-E5EF-41E6-84E9-F397290C260A}">
   <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="E123" sqref="E123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17771,7 +17765,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>21</v>
@@ -20190,8 +20184,8 @@
       <c r="A122" s="2">
         <v>201</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>164</v>
+      <c r="B122" s="2">
+        <v>93</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>163</v>
@@ -20199,8 +20193,8 @@
       <c r="D122" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>165</v>
+      <c r="E122" s="2">
+        <v>1.0678000000000001</v>
       </c>
       <c r="F122" s="2">
         <v>2.2440000000000002</v>
@@ -20214,10 +20208,10 @@
         <v>98</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E123" s="2">
         <v>0.99029999999999996</v>
@@ -20234,10 +20228,10 @@
         <v>98</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E124" s="2">
         <v>1.5653999999999999</v>
@@ -20254,10 +20248,10 @@
         <v>99</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E125" s="2">
         <v>3.8182999999999998</v>
@@ -20277,7 +20271,7 @@
         <v>160</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E126" s="2">
         <v>2.4872999999999998</v>

--- a/data/Unifac-2017.xlsx
+++ b/data/Unifac-2017.xlsx
@@ -17749,8 +17749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE23D229-E5EF-41E6-84E9-F397290C260A}">
   <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="E123" sqref="E123"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="R75" sqref="R75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/Unifac-2017.xlsx
+++ b/data/Unifac-2017.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" firstSheet="1" activeTab="1" xr2:uid="{69F665D0-AFCD-4318-ABBD-3D289C6C1BA1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="2" xr2:uid="{69F665D0-AFCD-4318-ABBD-3D289C6C1BA1}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIFAC-DORTMUND-Interactions" sheetId="1" r:id="rId1"/>
     <sheet name="UNIFAC-DORTMUND-SurfaceVolume" sheetId="3" r:id="rId2"/>
-    <sheet name="References" sheetId="2" r:id="rId3"/>
+    <sheet name="FamiliyGroups" sheetId="4" r:id="rId3"/>
+    <sheet name="References" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="193">
   <si>
     <t>i</t>
   </si>
@@ -534,6 +535,78 @@
   <si>
     <t>Main Group</t>
   </si>
+  <si>
+    <t>Alifáticos</t>
+  </si>
+  <si>
+    <t>Doble Enlace</t>
+  </si>
+  <si>
+    <t>Aromático</t>
+  </si>
+  <si>
+    <t>Alcohol</t>
+  </si>
+  <si>
+    <t>Cetona</t>
+  </si>
+  <si>
+    <t>Aldehído</t>
+  </si>
+  <si>
+    <t>Ester</t>
+  </si>
+  <si>
+    <t>Eter</t>
+  </si>
+  <si>
+    <t>Amina</t>
+  </si>
+  <si>
+    <t>Nitrilo</t>
+  </si>
+  <si>
+    <t>Ácido</t>
+  </si>
+  <si>
+    <t>Halogenados</t>
+  </si>
+  <si>
+    <t>con Azufre</t>
+  </si>
+  <si>
+    <t>Triple Enlace</t>
+  </si>
+  <si>
+    <t>Amidas</t>
+  </si>
+  <si>
+    <t>Cíclicos</t>
+  </si>
+  <si>
+    <t>heterociclos</t>
+  </si>
+  <si>
+    <t>Epoxy</t>
+  </si>
+  <si>
+    <t>Nitro</t>
+  </si>
+  <si>
+    <t>Agua</t>
+  </si>
+  <si>
+    <t>Furfural</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>GROUPS</t>
+  </si>
+  <si>
+    <t>Acryl</t>
+  </si>
 </sst>
 </file>
 
@@ -591,7 +664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -609,6 +682,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17749,8 +17824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE23D229-E5EF-41E6-84E9-F397290C260A}">
   <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="R75" sqref="R75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20287,6 +20362,464 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5FF6FC-56B2-455E-AED3-A52067C5D4D9}">
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7">
+        <v>37</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="7">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>8</v>
+      </c>
+      <c r="E4" s="7">
+        <v>17</v>
+      </c>
+      <c r="F4" s="7">
+        <v>18</v>
+      </c>
+      <c r="G4" s="7">
+        <v>25</v>
+      </c>
+      <c r="H4" s="7">
+        <v>27</v>
+      </c>
+      <c r="I4" s="7">
+        <v>52</v>
+      </c>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="7">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7">
+        <v>31</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" s="7">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="7">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="7">
+        <v>11</v>
+      </c>
+      <c r="C8" s="7">
+        <v>12</v>
+      </c>
+      <c r="D8" s="7">
+        <v>41</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="7">
+        <v>13</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" s="7">
+        <v>14</v>
+      </c>
+      <c r="C10" s="7">
+        <v>15</v>
+      </c>
+      <c r="D10" s="7">
+        <v>16</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11" s="7">
+        <v>19</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="7">
+        <v>20</v>
+      </c>
+      <c r="C12" s="7">
+        <v>44</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B13" s="7">
+        <v>37</v>
+      </c>
+      <c r="C13" s="7">
+        <v>21</v>
+      </c>
+      <c r="D13" s="7">
+        <v>22</v>
+      </c>
+      <c r="E13" s="7">
+        <v>23</v>
+      </c>
+      <c r="F13" s="7">
+        <v>24</v>
+      </c>
+      <c r="G13" s="7">
+        <v>45</v>
+      </c>
+      <c r="H13" s="7">
+        <v>32</v>
+      </c>
+      <c r="I13" s="7">
+        <v>33</v>
+      </c>
+      <c r="J13" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" s="7">
+        <v>28</v>
+      </c>
+      <c r="C14" s="7">
+        <v>29</v>
+      </c>
+      <c r="D14" s="7">
+        <v>52</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" s="7">
+        <v>34</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16" s="7">
+        <v>47</v>
+      </c>
+      <c r="C16" s="7">
+        <v>48</v>
+      </c>
+      <c r="D16" s="7">
+        <v>49</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B17" s="7">
+        <v>42</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B18" s="7">
+        <v>43</v>
+      </c>
+      <c r="C18" s="7">
+        <v>46</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B19" s="7">
+        <v>53</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B20" s="7">
+        <v>26</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" s="7">
+        <v>7</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B22" s="7">
+        <v>30</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="7">
+        <v>35</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B24" s="7">
+        <v>36</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65E71E1-D2CE-4AAE-9921-4567A673AA89}">
   <dimension ref="A1:A11"/>
   <sheetViews>

--- a/data/Unifac-2017.xlsx
+++ b/data/Unifac-2017.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDrive\UNAL\2017\TRABAJO FINAL\Java\CAMD-nuHAEA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="2" xr2:uid="{69F665D0-AFCD-4318-ABBD-3D289C6C1BA1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="1" xr2:uid="{69F665D0-AFCD-4318-ABBD-3D289C6C1BA1}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIFAC-DORTMUND-Interactions" sheetId="1" r:id="rId1"/>
     <sheet name="UNIFAC-DORTMUND-SurfaceVolume" sheetId="3" r:id="rId2"/>
-    <sheet name="FamiliyGroups" sheetId="4" r:id="rId3"/>
+    <sheet name="FamilyGroups" sheetId="4" r:id="rId3"/>
     <sheet name="References" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="194">
   <si>
     <t>i</t>
   </si>
@@ -311,12 +311,6 @@
     <t>BR</t>
   </si>
   <si>
-    <t>CH=-C</t>
-  </si>
-  <si>
-    <t>C=-C</t>
-  </si>
-  <si>
     <t>DMSO</t>
   </si>
   <si>
@@ -572,9 +566,6 @@
     <t>Halogenados</t>
   </si>
   <si>
-    <t>con Azufre</t>
-  </si>
-  <si>
     <t>Triple Enlace</t>
   </si>
   <si>
@@ -607,12 +598,24 @@
   <si>
     <t>Acryl</t>
   </si>
+  <si>
+    <t>Azufrados</t>
+  </si>
+  <si>
+    <t>Ξ≡</t>
+  </si>
+  <si>
+    <t>C≡C</t>
+  </si>
+  <si>
+    <t>CH≡C</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -627,6 +630,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -664,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -684,6 +693,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1064,6 +1074,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{654D54EF-150D-49A8-8961-B65478CD1410}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H757"/>
   <sheetViews>
     <sheetView topLeftCell="A679" workbookViewId="0">
@@ -17822,10 +17833,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE23D229-E5EF-41E6-84E9-F397290C260A}">
-  <dimension ref="A1:F126"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17840,7 +17852,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>21</v>
@@ -19115,7 +19127,7 @@
         <v>0.91690000000000005</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -19135,7 +19147,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -19143,10 +19155,10 @@
         <v>34</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>95</v>
+        <v>192</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>193</v>
       </c>
       <c r="E66" s="2">
         <v>0.9214</v>
@@ -19154,8 +19166,11 @@
       <c r="F66" s="2">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H66" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -19163,10 +19178,10 @@
         <v>34</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>95</v>
+        <v>192</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>192</v>
       </c>
       <c r="E67" s="2">
         <v>1.3029999999999999</v>
@@ -19175,7 +19190,7 @@
         <v>1.1319999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -19183,10 +19198,10 @@
         <v>35</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2">
         <v>3.6</v>
@@ -19195,7 +19210,7 @@
         <v>2.6920000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -19203,10 +19218,10 @@
         <v>36</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2">
         <v>1</v>
@@ -19215,7 +19230,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -19223,10 +19238,10 @@
         <v>37</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E70" s="2">
         <v>0.52290000000000003</v>
@@ -19235,7 +19250,7 @@
         <v>0.73909999999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -19255,7 +19270,7 @@
         <v>0.4582</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -19263,10 +19278,10 @@
         <v>38</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E72" s="2">
         <v>0.88139999999999996</v>
@@ -19275,7 +19290,7 @@
         <v>0.72689999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -19283,10 +19298,10 @@
         <v>39</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E73" s="2">
         <v>2</v>
@@ -19295,7 +19310,7 @@
         <v>2.093</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -19303,10 +19318,10 @@
         <v>39</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E74" s="2">
         <v>2.3809999999999998</v>
@@ -19315,7 +19330,7 @@
         <v>1.522</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -19323,10 +19338,10 @@
         <v>40</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E75" s="2">
         <v>1.284</v>
@@ -19335,7 +19350,7 @@
         <v>1.266</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -19343,10 +19358,10 @@
         <v>40</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E76" s="2">
         <v>1.284</v>
@@ -19355,7 +19370,7 @@
         <v>1.0980000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -19363,10 +19378,10 @@
         <v>40</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E77" s="2">
         <v>0.82150000000000001</v>
@@ -19375,7 +19390,7 @@
         <v>0.51349999999999996</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -19383,10 +19398,10 @@
         <v>41</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E78" s="2">
         <v>1.6</v>
@@ -19395,7 +19410,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -19403,10 +19418,10 @@
         <v>42</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E79" s="2">
         <v>0.71360000000000001</v>
@@ -19415,7 +19430,7 @@
         <v>0.86350000000000005</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -19423,10 +19438,10 @@
         <v>42</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E80" s="2">
         <v>0.34789999999999999</v>
@@ -19443,10 +19458,10 @@
         <v>42</v>
       </c>
       <c r="C81" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="E81" s="2">
         <v>0.34699999999999998</v>
@@ -19466,7 +19481,7 @@
         <v>39</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E82" s="2">
         <v>1.0629999999999999</v>
@@ -19486,7 +19501,7 @@
         <v>39</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E83" s="2">
         <v>0.6895</v>
@@ -19526,7 +19541,7 @@
         <v>53</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E85" s="2">
         <v>1.0412999999999999</v>
@@ -19546,7 +19561,7 @@
         <v>55</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E86" s="2">
         <v>1.6607000000000001</v>
@@ -19563,10 +19578,10 @@
         <v>46</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E87" s="2">
         <v>3.9809999999999999</v>
@@ -19583,10 +19598,10 @@
         <v>46</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E88" s="2">
         <v>3.7543000000000002</v>
@@ -19603,10 +19618,10 @@
         <v>46</v>
       </c>
       <c r="C89" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="E89" s="2">
         <v>3.5268000000000002</v>
@@ -19623,10 +19638,10 @@
         <v>46</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E90" s="2">
         <v>3.2993999999999999</v>
@@ -19643,10 +19658,10 @@
         <v>47</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E91" s="2">
         <v>1.4515</v>
@@ -19663,10 +19678,10 @@
         <v>47</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E92" s="2">
         <v>1.5</v>
@@ -19683,10 +19698,10 @@
         <v>49</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E93" s="2">
         <v>2.4617</v>
@@ -19703,10 +19718,10 @@
         <v>49</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E94" s="2">
         <v>2.4617</v>
@@ -19723,10 +19738,10 @@
         <v>47</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E95" s="2">
         <v>1.5</v>
@@ -19743,10 +19758,10 @@
         <v>48</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E96" s="2">
         <v>2.4748000000000001</v>
@@ -19763,10 +19778,10 @@
         <v>48</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E97" s="2">
         <v>2.2738999999999998</v>
@@ -19783,10 +19798,10 @@
         <v>48</v>
       </c>
       <c r="C98" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="E98" s="2">
         <v>2.0767000000000002</v>
@@ -19803,10 +19818,10 @@
         <v>52</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E99" s="2">
         <v>1.7943</v>
@@ -19823,10 +19838,10 @@
         <v>52</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E100" s="2">
         <v>1.6282000000000001</v>
@@ -19843,10 +19858,10 @@
         <v>52</v>
       </c>
       <c r="C101" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="E101" s="2">
         <v>1.4621</v>
@@ -19863,10 +19878,10 @@
         <v>53</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E102" s="2">
         <v>1.3601000000000001</v>
@@ -19883,10 +19898,10 @@
         <v>53</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E103" s="2">
         <v>0.68300000000000005</v>
@@ -19903,10 +19918,10 @@
         <v>53</v>
       </c>
       <c r="C104" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="E104" s="2">
         <v>0.91039999999999999</v>
@@ -19923,10 +19938,10 @@
         <v>56</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E105" s="2">
         <v>2.6869999999999998</v>
@@ -19943,10 +19958,10 @@
         <v>56</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E106" s="2">
         <v>2.46</v>
@@ -19963,10 +19978,10 @@
         <v>55</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E107" s="2">
         <v>2.42</v>
@@ -19983,10 +19998,10 @@
         <v>55</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E108" s="2">
         <v>2.42</v>
@@ -20003,10 +20018,10 @@
         <v>55</v>
       </c>
       <c r="C109" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="E109" s="2">
         <v>2.42</v>
@@ -20023,10 +20038,10 @@
         <v>53</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E110" s="2">
         <v>1.0629999999999999</v>
@@ -20043,10 +20058,10 @@
         <v>61</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E111" s="2">
         <v>1.613</v>
@@ -20063,10 +20078,10 @@
         <v>61</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E112" s="2">
         <v>1.3863000000000001</v>
@@ -20083,10 +20098,10 @@
         <v>61</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E113" s="2">
         <v>1.1589</v>
@@ -20103,10 +20118,10 @@
         <v>53</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E114" s="2">
         <v>0.91039999999999999</v>
@@ -20123,10 +20138,10 @@
         <v>84</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E115" s="2">
         <v>1.3662000000000001</v>
@@ -20143,10 +20158,10 @@
         <v>85</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E116" s="2">
         <v>5.6210000000000004</v>
@@ -20163,10 +20178,10 @@
         <v>84</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E117" s="2">
         <v>1.843</v>
@@ -20183,10 +20198,10 @@
         <v>87</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E118" s="2">
         <v>2.7867000000000002</v>
@@ -20203,10 +20218,10 @@
         <v>89</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E119" s="2">
         <v>3.9628000000000001</v>
@@ -20223,10 +20238,10 @@
         <v>90</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E120" s="2">
         <v>2.1093999999999999</v>
@@ -20243,10 +20258,10 @@
         <v>91</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E121" s="2">
         <v>3.371</v>
@@ -20263,10 +20278,10 @@
         <v>93</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E122" s="2">
         <v>1.0678000000000001</v>
@@ -20283,10 +20298,10 @@
         <v>98</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E123" s="2">
         <v>0.99029999999999996</v>
@@ -20303,10 +20318,10 @@
         <v>98</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E124" s="2">
         <v>1.5653999999999999</v>
@@ -20323,10 +20338,10 @@
         <v>99</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E125" s="2">
         <v>3.8182999999999998</v>
@@ -20343,10 +20358,10 @@
         <v>90</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E126" s="2">
         <v>2.4872999999999998</v>
@@ -20363,10 +20378,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5FF6FC-56B2-455E-AED3-A52067C5D4D9}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20376,10 +20392,10 @@
   <sheetData>
     <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -20392,7 +20408,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
@@ -20408,7 +20424,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B3" s="7">
         <v>2</v>
@@ -20426,7 +20442,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B4" s="7">
         <v>3</v>
@@ -20456,7 +20472,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B5" s="7">
         <v>5</v>
@@ -20476,7 +20492,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B6" s="7">
         <v>9</v>
@@ -20492,7 +20508,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B7" s="7">
         <v>10</v>
@@ -20508,7 +20524,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B8" s="7">
         <v>11</v>
@@ -20528,7 +20544,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B9" s="7">
         <v>13</v>
@@ -20544,7 +20560,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B10" s="7">
         <v>14</v>
@@ -20564,7 +20580,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B11" s="7">
         <v>19</v>
@@ -20580,7 +20596,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B12" s="7">
         <v>20</v>
@@ -20598,7 +20614,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B13" s="7">
         <v>37</v>
@@ -20630,7 +20646,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B14" s="7">
         <v>28</v>
@@ -20650,7 +20666,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B15" s="7">
         <v>34</v>
@@ -20666,7 +20682,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B16" s="7">
         <v>47</v>
@@ -20686,7 +20702,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B17" s="7">
         <v>42</v>
@@ -20702,7 +20718,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B18" s="7">
         <v>43</v>
@@ -20720,7 +20736,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B19" s="7">
         <v>53</v>
@@ -20736,7 +20752,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B20" s="7">
         <v>26</v>
@@ -20752,7 +20768,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B21" s="7">
         <v>7</v>
@@ -20768,7 +20784,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B22" s="7">
         <v>30</v>
@@ -20784,7 +20800,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B23" s="7">
         <v>35</v>
@@ -20800,7 +20816,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B24" s="7">
         <v>36</v>
@@ -20821,10 +20837,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65E71E1-D2CE-4AAE-9921-4567A673AA89}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/Unifac-2017.xlsx
+++ b/data/Unifac-2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="1" xr2:uid="{69F665D0-AFCD-4318-ABBD-3D289C6C1BA1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="2" xr2:uid="{69F665D0-AFCD-4318-ABBD-3D289C6C1BA1}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIFAC-DORTMUND-Interactions" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="195">
   <si>
     <t>i</t>
   </si>
@@ -610,6 +610,9 @@
   <si>
     <t>CH≡C</t>
   </si>
+  <si>
+    <t>INDEX</t>
+  </si>
 </sst>
 </file>
 
@@ -17836,7 +17839,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
@@ -20379,25 +20382,27 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5FF6FC-56B2-455E-AED3-A52067C5D4D9}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
@@ -20405,15 +20410,18 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="7">
+      <c r="C2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -20421,83 +20429,95 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="7">
+      <c r="C3" s="7">
         <v>2</v>
       </c>
-      <c r="C3" s="7">
+      <c r="D3" s="7">
         <v>37</v>
       </c>
-      <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B4" s="7">
+      <c r="C4" s="7">
         <v>3</v>
       </c>
-      <c r="C4" s="7">
+      <c r="D4" s="7">
         <v>4</v>
       </c>
-      <c r="D4" s="7">
+      <c r="E4" s="7">
         <v>8</v>
       </c>
-      <c r="E4" s="7">
+      <c r="F4" s="7">
         <v>17</v>
       </c>
-      <c r="F4" s="7">
+      <c r="G4" s="7">
         <v>18</v>
       </c>
-      <c r="G4" s="7">
+      <c r="H4" s="7">
         <v>25</v>
       </c>
-      <c r="H4" s="7">
+      <c r="I4" s="7">
         <v>27</v>
       </c>
-      <c r="I4" s="7">
+      <c r="J4" s="7">
         <v>52</v>
       </c>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B5" s="7">
+      <c r="C5" s="7">
         <v>5</v>
       </c>
-      <c r="C5" s="7">
+      <c r="D5" s="7">
         <v>6</v>
       </c>
-      <c r="D5" s="7">
+      <c r="E5" s="7">
         <v>31</v>
       </c>
-      <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B6" s="7">
+      <c r="C6" s="7">
         <v>9</v>
       </c>
-      <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -20505,15 +20525,18 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B7" s="7">
+      <c r="C7" s="7">
         <v>10</v>
       </c>
-      <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -20521,35 +20544,41 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B8" s="7">
+      <c r="C8" s="7">
         <v>11</v>
       </c>
-      <c r="C8" s="7">
+      <c r="D8" s="7">
         <v>12</v>
       </c>
-      <c r="D8" s="7">
+      <c r="E8" s="7">
         <v>41</v>
       </c>
-      <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B9" s="7">
+      <c r="C9" s="7">
         <v>13</v>
       </c>
-      <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -20557,35 +20586,41 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B10" s="7">
+      <c r="C10" s="7">
         <v>14</v>
       </c>
-      <c r="C10" s="7">
+      <c r="D10" s="7">
         <v>15</v>
       </c>
-      <c r="D10" s="7">
+      <c r="E10" s="7">
         <v>16</v>
       </c>
-      <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B11" s="7">
+      <c r="C11" s="7">
         <v>19</v>
       </c>
-      <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -20593,85 +20628,97 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B12" s="7">
+      <c r="C12" s="7">
         <v>20</v>
       </c>
-      <c r="C12" s="7">
+      <c r="D12" s="7">
         <v>44</v>
       </c>
-      <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B13" s="7">
+      <c r="C13" s="7">
         <v>37</v>
       </c>
-      <c r="C13" s="7">
+      <c r="D13" s="7">
         <v>21</v>
       </c>
-      <c r="D13" s="7">
+      <c r="E13" s="7">
         <v>22</v>
       </c>
-      <c r="E13" s="7">
+      <c r="F13" s="7">
         <v>23</v>
       </c>
-      <c r="F13" s="7">
+      <c r="G13" s="7">
         <v>24</v>
       </c>
-      <c r="G13" s="7">
+      <c r="H13" s="7">
         <v>45</v>
       </c>
-      <c r="H13" s="7">
+      <c r="I13" s="7">
         <v>32</v>
       </c>
-      <c r="I13" s="7">
+      <c r="J13" s="7">
         <v>33</v>
       </c>
-      <c r="J13" s="7">
+      <c r="K13" s="7">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B14" s="7">
+      <c r="C14" s="7">
         <v>28</v>
       </c>
-      <c r="C14" s="7">
+      <c r="D14" s="7">
         <v>29</v>
       </c>
-      <c r="D14" s="7">
+      <c r="E14" s="7">
         <v>52</v>
       </c>
-      <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B15" s="7">
+      <c r="C15" s="7">
         <v>34</v>
       </c>
-      <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -20679,35 +20726,41 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B16" s="7">
+      <c r="C16" s="7">
         <v>47</v>
       </c>
-      <c r="C16" s="7">
+      <c r="D16" s="7">
         <v>48</v>
       </c>
-      <c r="D16" s="7">
+      <c r="E16" s="7">
         <v>49</v>
       </c>
-      <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B17" s="7">
+      <c r="C17" s="7">
         <v>42</v>
       </c>
-      <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -20715,33 +20768,39 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B18" s="7">
+      <c r="C18" s="7">
         <v>43</v>
       </c>
-      <c r="C18" s="7">
+      <c r="D18" s="7">
         <v>46</v>
       </c>
-      <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="B19" s="7">
+      <c r="C19" s="7">
         <v>53</v>
       </c>
-      <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -20749,15 +20808,18 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="B20" s="7">
+      <c r="C20" s="7">
         <v>26</v>
       </c>
-      <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -20765,15 +20827,18 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B21" s="7">
+      <c r="C21" s="7">
         <v>7</v>
       </c>
-      <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -20781,15 +20846,18 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="B22" s="7">
+      <c r="C22" s="7">
         <v>30</v>
       </c>
-      <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -20797,15 +20865,18 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="7">
+      <c r="C23" s="7">
         <v>35</v>
       </c>
-      <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
@@ -20813,15 +20884,18 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B24" s="7">
+      <c r="C24" s="7">
         <v>36</v>
       </c>
-      <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -20829,6 +20903,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Unifac-2017.xlsx
+++ b/data/Unifac-2017.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDrive\UNAL\2017\TRABAJO FINAL\Java\CAMD-nuHAEA\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDrive\UNAL\Maestría\TRABAJO FINAL\Java\CAMD-nuHAEA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="2" xr2:uid="{69F665D0-AFCD-4318-ABBD-3D289C6C1BA1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="5220" firstSheet="1" activeTab="2" xr2:uid="{69F665D0-AFCD-4318-ABBD-3D289C6C1BA1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="7155" firstSheet="1" activeTab="1" xr2:uid="{8055D443-7C33-4EDC-AF05-7338904B4A6A}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIFAC-DORTMUND-Interactions" sheetId="1" r:id="rId1"/>
@@ -17,6 +18,9 @@
     <sheet name="FamilyGroups" sheetId="4" r:id="rId3"/>
     <sheet name="References" sheetId="2" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'UNIFAC-DORTMUND-SurfaceVolume'!$A$1:$F$126</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="194">
   <si>
     <t>i</t>
   </si>
@@ -593,16 +597,10 @@
     <t>NAME</t>
   </si>
   <si>
-    <t>GROUPS</t>
-  </si>
-  <si>
     <t>Acryl</t>
   </si>
   <si>
     <t>Azufrados</t>
-  </si>
-  <si>
-    <t>Ξ≡</t>
   </si>
   <si>
     <t>C≡C</t>
@@ -612,6 +610,9 @@
   </si>
   <si>
     <t>INDEX</t>
+  </si>
+  <si>
+    <t>FAMILY GROUPS</t>
   </si>
 </sst>
 </file>
@@ -641,12 +642,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -676,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -697,6 +704,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1080,9 +1091,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H757"/>
   <sheetViews>
-    <sheetView topLeftCell="A679" workbookViewId="0">
-      <selection activeCell="C694" sqref="C694"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -17839,8 +17849,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C132" sqref="C132"/>
+    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="1">
+      <selection activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18031,102 +18044,102 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="11">
         <v>3</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="11">
         <v>0.37630000000000002</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="11">
         <v>0.43209999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="11">
         <v>3</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="11">
         <v>0.37630000000000002</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="11">
         <v>0.21129999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="11">
         <v>4</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="11">
         <v>0.91</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="11">
         <v>0.94899999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="11">
         <v>4</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="11">
         <v>0.91</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="11">
         <v>0.79620000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="11">
         <v>4</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="11">
         <v>0.91</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="11">
         <v>0.37690000000000001</v>
       </c>
     </row>
@@ -18191,22 +18204,22 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="11">
         <v>8</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="11">
         <v>1.08</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="11">
         <v>0.97499999999999998</v>
       </c>
     </row>
@@ -18391,22 +18404,22 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="A28" s="11">
         <v>27</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="11">
         <v>43</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="11">
         <v>1.7022999999999999</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="11">
         <v>1.8784000000000001</v>
       </c>
     </row>
@@ -18571,82 +18584,82 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+      <c r="A37" s="11">
         <v>36</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="11">
         <v>17</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="11">
         <v>1.1849000000000001</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="11">
         <v>0.80669999999999997</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+      <c r="A38" s="11">
         <v>37</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="11">
         <v>18</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="11">
         <v>1.4578</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="11">
         <v>0.9022</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+      <c r="A39" s="11">
         <v>38</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="11">
         <v>18</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="11">
         <v>1.2393000000000001</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="11">
         <v>0.63300000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+      <c r="A40" s="11">
         <v>39</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="11">
         <v>18</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="11">
         <v>1.0730999999999999</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="11">
         <v>0.35299999999999998</v>
       </c>
     </row>
@@ -18911,22 +18924,22 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
+      <c r="A54" s="11">
         <v>53</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="11">
         <v>25</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="11">
         <v>0.53649999999999998</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="11">
         <v>0.31769999999999998</v>
       </c>
     </row>
@@ -18991,82 +19004,82 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
+      <c r="A58" s="11">
         <v>57</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="11">
         <v>27</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="11">
         <v>0.46560000000000001</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="11">
         <v>0.3589</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
+      <c r="A59" s="11">
         <v>58</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="11">
         <v>28</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="11">
         <v>1.24</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="11">
         <v>1.0680000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
+      <c r="A60" s="11">
         <v>59</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="11">
         <v>29</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="11">
         <v>1.2889999999999999</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="11">
         <v>1.762</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
+      <c r="A61" s="11">
         <v>60</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="11">
         <v>29</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="11">
         <v>1.5349999999999999</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="11">
         <v>1.3160000000000001</v>
       </c>
     </row>
@@ -19158,10 +19171,10 @@
         <v>34</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E66" s="2">
         <v>0.9214</v>
@@ -19169,9 +19182,7 @@
       <c r="F66" s="2">
         <v>1.3</v>
       </c>
-      <c r="H66" s="9" t="s">
-        <v>191</v>
-      </c>
+      <c r="H66" s="9"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -19181,10 +19192,10 @@
         <v>34</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E67" s="2">
         <v>1.3029999999999999</v>
@@ -19414,62 +19425,62 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
+      <c r="A79" s="11">
         <v>78</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="11">
         <v>42</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79" s="11">
         <v>0.71360000000000001</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F79" s="11">
         <v>0.86350000000000005</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
+      <c r="A80" s="11">
         <v>79</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="11">
         <v>42</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80" s="11">
         <v>0.34789999999999999</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F80" s="11">
         <v>0.1071</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
+      <c r="A81" s="11">
         <v>80</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="11">
         <v>42</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81" s="11">
         <v>0.34699999999999998</v>
       </c>
-      <c r="F81" s="2">
+      <c r="F81" s="11">
         <v>0</v>
       </c>
     </row>
@@ -19514,42 +19525,42 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
+      <c r="A84" s="11">
         <v>83</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="11">
         <v>43</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84" s="11">
         <v>1.4046000000000001</v>
       </c>
-      <c r="F84" s="2">
+      <c r="F84" s="11">
         <v>1.4</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
+      <c r="A85" s="11">
         <v>84</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="11">
         <v>43</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E85" s="11">
         <v>1.0412999999999999</v>
       </c>
-      <c r="F85" s="2">
+      <c r="F85" s="11">
         <v>1.0116000000000001</v>
       </c>
     </row>
@@ -19574,82 +19585,82 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
+      <c r="A87" s="11">
         <v>86</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="11">
         <v>46</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E87" s="11">
         <v>3.9809999999999999</v>
       </c>
-      <c r="F87" s="2">
+      <c r="F87" s="11">
         <v>3.2</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
+      <c r="A88" s="11">
         <v>87</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="11">
         <v>46</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E88" s="11">
         <v>3.7543000000000002</v>
       </c>
-      <c r="F88" s="2">
+      <c r="F88" s="11">
         <v>2.8919999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
+      <c r="A89" s="11">
         <v>88</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="11">
         <v>46</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E89" s="11">
         <v>3.5268000000000002</v>
       </c>
-      <c r="F89" s="2">
+      <c r="F89" s="11">
         <v>2.58</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
+      <c r="A90" s="11">
         <v>89</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="11">
         <v>46</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E90" s="11">
         <v>3.2993999999999999</v>
       </c>
-      <c r="F90" s="2">
+      <c r="F90" s="11">
         <v>2.3519999999999999</v>
       </c>
     </row>
@@ -19814,62 +19825,62 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
+      <c r="A99" s="11">
         <v>104</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="11">
         <v>52</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E99" s="11">
         <v>1.7943</v>
       </c>
-      <c r="F99" s="2">
+      <c r="F99" s="11">
         <v>1.34</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
+      <c r="A100" s="11">
         <v>105</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="11">
         <v>52</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D100" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E100" s="2">
+      <c r="E100" s="11">
         <v>1.6282000000000001</v>
       </c>
-      <c r="F100" s="2">
+      <c r="F100" s="11">
         <v>1.06</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
+      <c r="A101" s="11">
         <v>106</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="11">
         <v>52</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D101" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="E101" s="2">
+      <c r="E101" s="11">
         <v>1.4621</v>
       </c>
-      <c r="F101" s="2">
+      <c r="F101" s="11">
         <v>0.78</v>
       </c>
     </row>
@@ -20374,6 +20385,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F126" xr:uid="{BF4D867B-618B-4723-B55C-7CB1524BBBB1}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20385,8 +20397,9 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="C4" sqref="C4:J4"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -20395,13 +20408,13 @@
   <sheetData>
     <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>187</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
@@ -20456,7 +20469,7 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="10" t="s">
         <v>169</v>
       </c>
       <c r="C4" s="7">
@@ -20690,8 +20703,8 @@
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>190</v>
+      <c r="B14" s="10" t="s">
+        <v>189</v>
       </c>
       <c r="C14" s="7">
         <v>28</v>
@@ -20755,7 +20768,7 @@
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="10" t="s">
         <v>181</v>
       </c>
       <c r="C17" s="7">
@@ -20774,7 +20787,7 @@
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="10" t="s">
         <v>182</v>
       </c>
       <c r="C18" s="7">
@@ -20891,7 +20904,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C24" s="7">
         <v>36</v>
@@ -20918,6 +20931,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="J43" sqref="J43"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/data/Unifac-2017.xlsx
+++ b/data/Unifac-2017.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,8 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="5220" firstSheet="1" activeTab="2" xr2:uid="{69F665D0-AFCD-4318-ABBD-3D289C6C1BA1}"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="7155" firstSheet="1" activeTab="1" xr2:uid="{8055D443-7C33-4EDC-AF05-7338904B4A6A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="7155" tabRatio="756" firstSheet="1" activeTab="1" xr2:uid="{8055D443-7C33-4EDC-AF05-7338904B4A6A}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIFAC-DORTMUND-Interactions" sheetId="1" r:id="rId1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="237">
   <si>
     <t>i</t>
   </si>
@@ -333,9 +332,6 @@
     <t>DMF</t>
   </si>
   <si>
-    <t>HCON(..</t>
-  </si>
-  <si>
     <t>CF3</t>
   </si>
   <si>
@@ -594,9 +590,6 @@
     <t>Furfural</t>
   </si>
   <si>
-    <t>NAME</t>
-  </si>
-  <si>
     <t>Acryl</t>
   </si>
   <si>
@@ -613,13 +606,148 @@
   </si>
   <si>
     <t>FAMILY GROUPS</t>
+  </si>
+  <si>
+    <t>SMILES</t>
+  </si>
+  <si>
+    <t>MAIN GROUPS</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>C(=O)</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>C(=C.)</t>
+  </si>
+  <si>
+    <t>C(=C)</t>
+  </si>
+  <si>
+    <t>C(=O)(C)</t>
+  </si>
+  <si>
+    <t>C(C(=O).)</t>
+  </si>
+  <si>
+    <t>O(C(=O)C)</t>
+  </si>
+  <si>
+    <t>C(C(=O)O.)</t>
+  </si>
+  <si>
+    <t>O(C=O)</t>
+  </si>
+  <si>
+    <t>O(C)</t>
+  </si>
+  <si>
+    <t>C(O.)</t>
+  </si>
+  <si>
+    <t>C(N)</t>
+  </si>
+  <si>
+    <t>C(N.)</t>
+  </si>
+  <si>
+    <t>N(C)</t>
+  </si>
+  <si>
+    <t>N(C.)</t>
+  </si>
+  <si>
+    <t>CC#N</t>
+  </si>
+  <si>
+    <t>C(C#N)</t>
+  </si>
+  <si>
+    <t>C(=O)(O)</t>
+  </si>
+  <si>
+    <t>C(Cl)</t>
+  </si>
+  <si>
+    <t>C(Cl)(Cl)</t>
+  </si>
+  <si>
+    <t>C(Cl)(Cl)(Cl)</t>
+  </si>
+  <si>
+    <t>C(Cl)(Cl)(Cl)(Cl)</t>
+  </si>
+  <si>
+    <t>C([N+](=O)([O-]))</t>
+  </si>
+  <si>
+    <t>Br</t>
+  </si>
+  <si>
+    <t>C(#C)</t>
+  </si>
+  <si>
+    <t>C(#C.)</t>
+  </si>
+  <si>
+    <t>C(=C(Cl).)</t>
+  </si>
+  <si>
+    <t>C(=C(.).)</t>
+  </si>
+  <si>
+    <t>HCON(CH2)2</t>
+  </si>
+  <si>
+    <t>C(N(C=O)C.)</t>
+  </si>
+  <si>
+    <t>C(F)(F)(F)</t>
+  </si>
+  <si>
+    <t>C(F)(F)</t>
+  </si>
+  <si>
+    <t>C(F)</t>
+  </si>
+  <si>
+    <t>C(=O)(N)</t>
+  </si>
+  <si>
+    <t>C(=O)(NC)</t>
+  </si>
+  <si>
+    <t>C(NC=O)</t>
+  </si>
+  <si>
+    <t>C(=O)(NC.)</t>
+  </si>
+  <si>
+    <t>C(=O)(N(C)C)</t>
+  </si>
+  <si>
+    <t>C(=O)(N(C)C.)</t>
+  </si>
+  <si>
+    <t>C(=O)(N(C.)C.)</t>
+  </si>
+  <si>
+    <t>C(S)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -640,6 +768,21 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -683,7 +826,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -705,9 +848,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1092,7 +1248,6 @@
   <dimension ref="A1:H757"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -17849,28 +18004,26 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C132" sqref="C132"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="1">
-      <selection activeCell="I88" sqref="I88"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="6" t="s">
@@ -17882,1195 +18035,1345 @@
       <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="G1" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="11">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="11">
         <v>0.63249999999999995</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="11">
         <v>1.0608</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="G2" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="11">
         <v>0.63249999999999995</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="11">
         <v>0.70809999999999995</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="G3" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="11">
         <v>0.63249999999999995</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="11">
         <v>0.35539999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="G4" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="11">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="11">
         <v>0.63249999999999995</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="G5" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="11">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="11">
         <v>1.2831999999999999</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="11">
         <v>1.6015999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="G6" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="11">
         <v>2</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="11">
         <v>1.2831999999999999</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="11">
         <v>1.2488999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="G7" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="11">
         <v>2</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="11">
         <v>1.2831999999999999</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="11">
         <v>1.2488999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="G8" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="11">
         <v>2</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="11">
         <v>1.2831999999999999</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="11">
         <v>0.8962</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="G9" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="12">
         <v>3</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="12">
         <v>0.37630000000000002</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="12">
         <v>0.43209999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="12">
         <v>3</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="12">
         <v>0.37630000000000002</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="12">
         <v>0.21129999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="12">
         <v>4</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="12">
         <v>0.91</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="12">
         <v>0.94899999999999995</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="12">
         <v>4</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="12">
         <v>0.91</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="12">
         <v>0.79620000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
         <v>13</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="12">
         <v>4</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="12">
         <v>0.91</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="12">
         <v>0.37690000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="11">
         <v>5</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="11">
         <v>1.2302</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="11">
         <v>0.89270000000000005</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="G15" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="11">
         <v>6</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="11">
         <v>0.85850000000000004</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="11">
         <v>0.99380000000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="G16" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="11">
         <v>7</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="11">
         <v>1.7334000000000001</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="11">
         <v>2.4561000000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+      <c r="G17" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
         <v>17</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="12">
         <v>8</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="12">
         <v>1.08</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="12">
         <v>0.97499999999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="11">
         <v>9</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="11">
         <v>1.7048000000000001</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="11">
         <v>1.67</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="G19" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="11">
         <v>9</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="11">
         <v>1.7048000000000001</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="11">
         <v>1.5542</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="G20" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="11">
         <v>10</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="11">
         <v>0.71730000000000005</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="11">
         <v>0.77100000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="G21" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="11">
         <v>11</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="11">
         <v>1.27</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="11">
         <v>1.6286</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="G22" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="11">
         <v>11</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="11">
         <v>1.27</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="11">
         <v>1.4228000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="G23" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
         <v>23</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="11">
         <v>12</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="11">
         <v>1.9</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="11">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="G24" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
         <v>24</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="11">
         <v>13</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="11">
         <v>1.1434</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="11">
         <v>1.6022000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="G25" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
         <v>25</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="11">
         <v>13</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="11">
         <v>1.1434</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="11">
         <v>1.2495000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="G26" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
         <v>26</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="11">
         <v>13</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="11">
         <v>1.1434</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="11">
         <v>0.89680000000000004</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
+      <c r="G27" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
         <v>27</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="12">
         <v>43</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="12">
         <v>1.7022999999999999</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="12">
         <v>1.8784000000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
         <v>28</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="11">
         <v>14</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="11">
         <v>1.6607000000000001</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="11">
         <v>1.6903999999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="G29" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
         <v>29</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="11">
         <v>14</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="11">
         <v>1.6607000000000001</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="11">
         <v>1.3376999999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="G30" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
         <v>30</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="11">
         <v>14</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="11">
         <v>1.6607000000000001</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="11">
         <v>0.98499999999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="G31" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
         <v>31</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="11">
         <v>15</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="11">
         <v>1.3680000000000001</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="11">
         <v>1.4332</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="G32" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
         <v>32</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="11">
         <v>15</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="11">
         <v>1.3680000000000001</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="11">
         <v>1.0805</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="G33" s="11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
         <v>33</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="11">
         <v>15</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="11">
         <v>1.3680000000000001</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="11">
         <v>0.7278</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+      <c r="G34" s="11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
         <v>34</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="11">
         <v>16</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="11">
         <v>1.0746</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="11">
         <v>1.1759999999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+      <c r="G35" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
         <v>35</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="11">
         <v>16</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="11">
         <v>1.0746</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="11">
         <v>0.82399999999999995</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="11">
+      <c r="G36" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
         <v>36</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="12">
         <v>17</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="12">
         <v>1.1849000000000001</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="12">
         <v>0.80669999999999997</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="11">
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
         <v>37</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="12">
         <v>18</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="12">
         <v>1.4578</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="12">
         <v>0.9022</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="11">
+      <c r="G38" s="12"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
         <v>38</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="12">
         <v>18</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="12">
         <v>1.2393000000000001</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="12">
         <v>0.63300000000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="11">
+      <c r="G39" s="12"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="12">
         <v>39</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="12">
         <v>18</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="12">
         <v>1.0730999999999999</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="12">
         <v>0.35299999999999998</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
         <v>40</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="11">
         <v>19</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="11">
         <v>1.5575000000000001</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="11">
         <v>1.5193000000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+      <c r="G41" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
         <v>41</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="11">
         <v>19</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="11">
         <v>1.5575000000000001</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="11">
         <v>1.1666000000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+      <c r="G42" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
         <v>42</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="11">
         <v>20</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="11">
         <v>0.8</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="11">
         <v>0.92149999999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+      <c r="G43" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
         <v>43</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="11">
         <v>44</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="11">
         <v>0.8</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="11">
         <v>1.2742</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+      <c r="G44" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
         <v>44</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="11">
         <v>21</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="11">
         <v>0.9919</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="11">
         <v>1.3653999999999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+      <c r="G45" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
         <v>45</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="11">
         <v>21</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="11">
         <v>0.9919</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="11">
         <v>1.0126999999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+      <c r="G46" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
         <v>46</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="11">
         <v>21</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="11">
         <v>0.9919</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="11">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+      <c r="G47" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
         <v>47</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="11">
         <v>22</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="11">
         <v>1.8</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="11">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+      <c r="G48" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
         <v>48</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="11">
         <v>22</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="11">
         <v>1.8</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="11">
         <v>2.1473</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+      <c r="G49" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
         <v>49</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="11">
         <v>22</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="11">
         <v>1.8</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="11">
         <v>1.7946</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+      <c r="G50" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
         <v>50</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="11">
         <v>45</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="11">
         <v>2.4500000000000002</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="11">
         <v>2.8912</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
+      <c r="G51" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="11">
         <v>51</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="11">
         <v>23</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="11">
         <v>2.65</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="11">
         <v>2.3778000000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
+      <c r="G52" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="11">
         <v>52</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="11">
         <v>24</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="11">
         <v>2.6179999999999999</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="11">
         <v>3.1836000000000002</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="11">
+      <c r="G53" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="12">
         <v>53</v>
       </c>
-      <c r="B54" s="11">
+      <c r="B54" s="12">
         <v>25</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E54" s="12">
         <v>0.53649999999999998</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F54" s="12">
         <v>0.31769999999999998</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
+      <c r="G54" s="12"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="11">
         <v>54</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="11">
         <v>26</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="11">
         <v>2.6440000000000001</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="11">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
+      <c r="G55" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="11">
         <v>55</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="11">
         <v>26</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="11">
         <v>2.5</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="11">
         <v>2.3039999999999998</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
+      <c r="G56" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="11">
         <v>56</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="11">
         <v>26</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="11">
         <v>2.887</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="11">
         <v>2.2410000000000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="11">
+      <c r="G57" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="12">
         <v>57</v>
       </c>
-      <c r="B58" s="11">
+      <c r="B58" s="12">
         <v>27</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E58" s="12">
         <v>0.46560000000000001</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F58" s="12">
         <v>0.3589</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="11">
+      <c r="G58" s="12"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="12">
         <v>58</v>
       </c>
-      <c r="B59" s="11">
+      <c r="B59" s="12">
         <v>28</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E59" s="11">
+      <c r="E59" s="12">
         <v>1.24</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F59" s="12">
         <v>1.0680000000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="11">
+      <c r="G59" s="12"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="12">
         <v>59</v>
       </c>
-      <c r="B60" s="11">
+      <c r="B60" s="12">
         <v>29</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E60" s="12">
         <v>1.2889999999999999</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F60" s="12">
         <v>1.762</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" s="12"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>60</v>
       </c>
       <c r="B61" s="11">
         <v>29</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="14" t="s">
         <v>88</v>
       </c>
       <c r="D61" s="11" t="s">
@@ -19082,1307 +19385,1419 @@
       <c r="F61" s="11">
         <v>1.3160000000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
+      <c r="G61" s="11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="11">
         <v>61</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="11">
         <v>30</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="11">
         <v>1.2989999999999999</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="11">
         <v>1.2889999999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
+      <c r="G62" s="11"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="11">
         <v>62</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="11">
         <v>31</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="11">
         <v>2.0880000000000001</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="11">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
+      <c r="G63" s="11"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="11">
         <v>63</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="11">
         <v>32</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="11">
         <v>1.0760000000000001</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="11">
         <v>0.91690000000000005</v>
       </c>
+      <c r="G64" s="11" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
+      <c r="A65" s="11">
         <v>64</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="11">
         <v>33</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="11">
         <v>1.2090000000000001</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65" s="11">
         <v>1.4</v>
       </c>
+      <c r="G65" s="11" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
+      <c r="A66" s="11">
         <v>65</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="11">
         <v>34</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E66" s="2">
+      <c r="C66" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="E66" s="11">
         <v>0.9214</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="11">
         <v>1.3</v>
       </c>
+      <c r="G66" s="11" t="s">
+        <v>220</v>
+      </c>
       <c r="H66" s="9"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
+      <c r="A67" s="11">
         <v>66</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="11">
         <v>34</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E67" s="2">
+      <c r="C67" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="E67" s="11">
         <v>1.3029999999999999</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="11">
         <v>1.1319999999999999</v>
       </c>
+      <c r="G67" s="11" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
+      <c r="A68" s="11">
         <v>67</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="11">
         <v>35</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="11">
         <v>3.6</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="11">
         <v>2.6920000000000002</v>
       </c>
+      <c r="G68" s="11"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
+      <c r="A69" s="11">
         <v>68</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="11">
         <v>36</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="11">
         <v>1</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69" s="11">
         <v>0.92</v>
       </c>
+      <c r="G69" s="11"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
+      <c r="A70" s="11">
         <v>69</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="11">
         <v>37</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="11">
         <v>0.52290000000000003</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70" s="11">
         <v>0.73909999999999998</v>
       </c>
+      <c r="G70" s="11" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
+      <c r="A71" s="11">
         <v>70</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="11">
         <v>2</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="11">
         <v>1.2831999999999999</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71" s="11">
         <v>0.4582</v>
       </c>
+      <c r="G71" s="11" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
+      <c r="A72" s="12">
         <v>71</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="12">
         <v>38</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="12">
         <v>0.88139999999999996</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F72" s="12">
         <v>0.72689999999999999</v>
       </c>
+      <c r="G72" s="12"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
+      <c r="A73" s="11">
         <v>72</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="11">
         <v>39</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="11">
         <v>2</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F73" s="11">
         <v>2.093</v>
       </c>
+      <c r="G73" s="11"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
+      <c r="A74" s="11">
         <v>73</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="11">
         <v>39</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E74" s="11">
+        <v>2.3809999999999998</v>
+      </c>
+      <c r="F74" s="11">
+        <v>1.522</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="11">
+        <v>74</v>
+      </c>
+      <c r="B75" s="11">
+        <v>40</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D75" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E74" s="2">
-        <v>2.3809999999999998</v>
-      </c>
-      <c r="F74" s="2">
-        <v>1.522</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
-        <v>74</v>
-      </c>
-      <c r="B75" s="2">
+      <c r="E75" s="11">
+        <v>1.284</v>
+      </c>
+      <c r="F75" s="11">
+        <v>1.266</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="11">
+        <v>75</v>
+      </c>
+      <c r="B76" s="11">
         <v>40</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C76" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E76" s="11">
+        <v>1.284</v>
+      </c>
+      <c r="F76" s="11">
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="11">
+        <v>76</v>
+      </c>
+      <c r="B77" s="11">
+        <v>40</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D77" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="E77" s="11">
+        <v>0.82150000000000001</v>
+      </c>
+      <c r="F77" s="11">
+        <v>0.51349999999999996</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="11">
+        <v>77</v>
+      </c>
+      <c r="B78" s="11">
+        <v>41</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E78" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="F78" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="12">
+        <v>78</v>
+      </c>
+      <c r="B79" s="12">
+        <v>42</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E79" s="12">
+        <v>0.71360000000000001</v>
+      </c>
+      <c r="F79" s="12">
+        <v>0.86350000000000005</v>
+      </c>
+      <c r="G79" s="12"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="12">
+        <v>79</v>
+      </c>
+      <c r="B80" s="12">
+        <v>42</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E80" s="12">
+        <v>0.34789999999999999</v>
+      </c>
+      <c r="F80" s="12">
+        <v>0.1071</v>
+      </c>
+      <c r="G80" s="12"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="12">
+        <v>80</v>
+      </c>
+      <c r="B81" s="12">
+        <v>42</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E81" s="12">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="F81" s="12">
+        <v>0</v>
+      </c>
+      <c r="G81" s="12"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="11">
+        <v>81</v>
+      </c>
+      <c r="B82" s="11">
+        <v>5</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E82" s="11">
+        <v>1.0629999999999999</v>
+      </c>
+      <c r="F82" s="11">
+        <v>0.86629999999999996</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="11">
+        <v>82</v>
+      </c>
+      <c r="B83" s="11">
+        <v>5</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E83" s="11">
+        <v>0.6895</v>
+      </c>
+      <c r="F83" s="11">
+        <v>0.83450000000000002</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="12">
+        <v>83</v>
+      </c>
+      <c r="B84" s="12">
+        <v>43</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E84" s="12">
+        <v>1.4046000000000001</v>
+      </c>
+      <c r="F84" s="12">
+        <v>1.4</v>
+      </c>
+      <c r="G84" s="12"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="12">
+        <v>84</v>
+      </c>
+      <c r="B85" s="12">
+        <v>43</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E85" s="12">
+        <v>1.0412999999999999</v>
+      </c>
+      <c r="F85" s="12">
+        <v>1.0116000000000001</v>
+      </c>
+      <c r="G85" s="12"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="11">
+        <v>85</v>
+      </c>
+      <c r="B86" s="11">
+        <v>14</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E86" s="11">
+        <v>1.6607000000000001</v>
+      </c>
+      <c r="F86" s="11">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="12">
+        <v>86</v>
+      </c>
+      <c r="B87" s="12">
+        <v>46</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E87" s="12">
+        <v>3.9809999999999999</v>
+      </c>
+      <c r="F87" s="12">
+        <v>3.2</v>
+      </c>
+      <c r="G87" s="12"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="12">
+        <v>87</v>
+      </c>
+      <c r="B88" s="12">
+        <v>46</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E88" s="12">
+        <v>3.7543000000000002</v>
+      </c>
+      <c r="F88" s="12">
+        <v>2.8919999999999999</v>
+      </c>
+      <c r="G88" s="12"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="12">
+        <v>88</v>
+      </c>
+      <c r="B89" s="12">
+        <v>46</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E89" s="12">
+        <v>3.5268000000000002</v>
+      </c>
+      <c r="F89" s="12">
+        <v>2.58</v>
+      </c>
+      <c r="G89" s="12"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="12">
+        <v>89</v>
+      </c>
+      <c r="B90" s="12">
+        <v>46</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E90" s="12">
+        <v>3.2993999999999999</v>
+      </c>
+      <c r="F90" s="12">
+        <v>2.3519999999999999</v>
+      </c>
+      <c r="G90" s="12"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="11">
+        <v>91</v>
+      </c>
+      <c r="B91" s="11">
+        <v>47</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E91" s="11">
+        <v>1.4515</v>
+      </c>
+      <c r="F91" s="11">
+        <v>1.248</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="11">
+        <v>92</v>
+      </c>
+      <c r="B92" s="11">
+        <v>47</v>
+      </c>
+      <c r="C92" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E92" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="F92" s="11">
+        <v>1.08</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="11">
+        <v>93</v>
+      </c>
+      <c r="B93" s="11">
+        <v>49</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E93" s="11">
+        <v>2.4617</v>
+      </c>
+      <c r="F93" s="11">
+        <v>2.1920000000000002</v>
+      </c>
+      <c r="G93" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="11">
+        <v>94</v>
+      </c>
+      <c r="B94" s="11">
+        <v>49</v>
+      </c>
+      <c r="C94" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E94" s="11">
+        <v>2.4617</v>
+      </c>
+      <c r="F94" s="11">
+        <v>1.8420000000000001</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="11">
+        <v>100</v>
+      </c>
+      <c r="B95" s="11">
+        <v>47</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E95" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="F95" s="11">
+        <v>1.08</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="11">
         <v>101</v>
       </c>
-      <c r="E75" s="2">
-        <v>1.284</v>
-      </c>
-      <c r="F75" s="2">
-        <v>1.266</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
-        <v>75</v>
-      </c>
-      <c r="B76" s="2">
-        <v>40</v>
-      </c>
-      <c r="C76" s="2" t="s">
+      <c r="B96" s="11">
+        <v>48</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E96" s="11">
+        <v>2.4748000000000001</v>
+      </c>
+      <c r="F96" s="11">
+        <v>1.9642999999999999</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="11">
         <v>102</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E76" s="2">
-        <v>1.284</v>
-      </c>
-      <c r="F76" s="2">
-        <v>1.0980000000000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
-        <v>76</v>
-      </c>
-      <c r="B77" s="2">
-        <v>40</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D77" s="2" t="s">
+      <c r="B97" s="11">
+        <v>48</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E97" s="11">
+        <v>2.2738999999999998</v>
+      </c>
+      <c r="F97" s="11">
+        <v>1.5753999999999999</v>
+      </c>
+      <c r="G97" s="11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="11">
         <v>103</v>
       </c>
-      <c r="E77" s="2">
-        <v>0.82150000000000001</v>
-      </c>
-      <c r="F77" s="2">
-        <v>0.51349999999999996</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
-        <v>77</v>
-      </c>
-      <c r="B78" s="2">
-        <v>41</v>
-      </c>
-      <c r="C78" s="2" t="s">
+      <c r="B98" s="11">
+        <v>48</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E98" s="11">
+        <v>2.0767000000000002</v>
+      </c>
+      <c r="F98" s="11">
+        <v>1.1866000000000001</v>
+      </c>
+      <c r="G98" s="11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="12">
         <v>104</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E78" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="F78" s="2">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="11">
-        <v>78</v>
-      </c>
-      <c r="B79" s="11">
-        <v>42</v>
-      </c>
-      <c r="C79" s="11" t="s">
+      <c r="B99" s="12">
+        <v>52</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E99" s="12">
+        <v>1.7943</v>
+      </c>
+      <c r="F99" s="12">
+        <v>1.34</v>
+      </c>
+      <c r="G99" s="12"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="12">
         <v>105</v>
       </c>
-      <c r="D79" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E79" s="11">
-        <v>0.71360000000000001</v>
-      </c>
-      <c r="F79" s="11">
-        <v>0.86350000000000005</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="11">
-        <v>79</v>
-      </c>
-      <c r="B80" s="11">
-        <v>42</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D80" s="11" t="s">
+      <c r="B100" s="12">
+        <v>52</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E100" s="12">
+        <v>1.6282000000000001</v>
+      </c>
+      <c r="F100" s="12">
+        <v>1.06</v>
+      </c>
+      <c r="G100" s="12"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="12">
         <v>106</v>
       </c>
-      <c r="E80" s="11">
-        <v>0.34789999999999999</v>
-      </c>
-      <c r="F80" s="11">
-        <v>0.1071</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="11">
-        <v>80</v>
-      </c>
-      <c r="B81" s="11">
-        <v>42</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D81" s="11" t="s">
+      <c r="B101" s="12">
+        <v>52</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D101" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E101" s="12">
+        <v>1.4621</v>
+      </c>
+      <c r="F101" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="G101" s="12"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="11">
         <v>107</v>
       </c>
-      <c r="E81" s="11">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="F81" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
-        <v>81</v>
-      </c>
-      <c r="B82" s="2">
-        <v>5</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D82" s="2" t="s">
+      <c r="B102" s="11">
+        <v>53</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E102" s="11">
+        <v>1.3601000000000001</v>
+      </c>
+      <c r="F102" s="11">
+        <v>1.8030999999999999</v>
+      </c>
+      <c r="G102" s="11"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="11">
         <v>108</v>
       </c>
-      <c r="E82" s="2">
+      <c r="B103" s="11">
+        <v>53</v>
+      </c>
+      <c r="C103" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E103" s="11">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="F103" s="11">
+        <v>0.34179999999999999</v>
+      </c>
+      <c r="G103" s="11"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="11">
+        <v>109</v>
+      </c>
+      <c r="B104" s="11">
+        <v>53</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E104" s="11">
+        <v>0.91039999999999999</v>
+      </c>
+      <c r="F104" s="11">
+        <v>0.65380000000000005</v>
+      </c>
+      <c r="G104" s="11"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="11">
+        <v>110</v>
+      </c>
+      <c r="B105" s="11">
+        <v>56</v>
+      </c>
+      <c r="C105" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E105" s="11">
+        <v>2.6869999999999998</v>
+      </c>
+      <c r="F105" s="11">
+        <v>2.12</v>
+      </c>
+      <c r="G105" s="11"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="11">
+        <v>111</v>
+      </c>
+      <c r="B106" s="11">
+        <v>56</v>
+      </c>
+      <c r="C106" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E106" s="11">
+        <v>2.46</v>
+      </c>
+      <c r="F106" s="11">
+        <v>1.8080000000000001</v>
+      </c>
+      <c r="G106" s="11"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="11">
+        <v>112</v>
+      </c>
+      <c r="B107" s="11">
+        <v>55</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E107" s="11">
+        <v>2.42</v>
+      </c>
+      <c r="F107" s="11">
+        <v>2.4975999999999998</v>
+      </c>
+      <c r="G107" s="11"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="11">
+        <v>113</v>
+      </c>
+      <c r="B108" s="11">
+        <v>55</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E108" s="11">
+        <v>2.42</v>
+      </c>
+      <c r="F108" s="11">
+        <v>2.0017999999999998</v>
+      </c>
+      <c r="G108" s="11"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="11">
+        <v>114</v>
+      </c>
+      <c r="B109" s="11">
+        <v>55</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E109" s="11">
+        <v>2.42</v>
+      </c>
+      <c r="F109" s="11">
+        <v>2.2496999999999998</v>
+      </c>
+      <c r="G109" s="11"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="11">
+        <v>119</v>
+      </c>
+      <c r="B110" s="11">
+        <v>53</v>
+      </c>
+      <c r="C110" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E110" s="11">
         <v>1.0629999999999999</v>
       </c>
-      <c r="F82" s="2">
-        <v>0.86629999999999996</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
-        <v>82</v>
-      </c>
-      <c r="B83" s="2">
-        <v>5</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E83" s="2">
-        <v>0.6895</v>
-      </c>
-      <c r="F83" s="2">
-        <v>0.83450000000000002</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="11">
-        <v>83</v>
-      </c>
-      <c r="B84" s="11">
-        <v>43</v>
-      </c>
-      <c r="C84" s="11" t="s">
+      <c r="F110" s="11">
+        <v>1.123</v>
+      </c>
+      <c r="G110" s="11"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="11">
+        <v>122</v>
+      </c>
+      <c r="B111" s="11">
+        <v>61</v>
+      </c>
+      <c r="C111" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E111" s="11">
+        <v>1.613</v>
+      </c>
+      <c r="F111" s="11">
+        <v>1.3680000000000001</v>
+      </c>
+      <c r="G111" s="11"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="11">
+        <v>123</v>
+      </c>
+      <c r="B112" s="11">
+        <v>61</v>
+      </c>
+      <c r="C112" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E112" s="11">
+        <v>1.3863000000000001</v>
+      </c>
+      <c r="F112" s="11">
+        <v>1.06</v>
+      </c>
+      <c r="G112" s="11"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="11">
+        <v>124</v>
+      </c>
+      <c r="B113" s="11">
+        <v>61</v>
+      </c>
+      <c r="C113" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E113" s="11">
+        <v>1.1589</v>
+      </c>
+      <c r="F113" s="11">
+        <v>0.748</v>
+      </c>
+      <c r="G113" s="11"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="11">
+        <v>153</v>
+      </c>
+      <c r="B114" s="11">
         <v>53</v>
       </c>
-      <c r="D84" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E84" s="11">
-        <v>1.4046000000000001</v>
-      </c>
-      <c r="F84" s="11">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="11">
+      <c r="C114" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E114" s="11">
+        <v>0.91039999999999999</v>
+      </c>
+      <c r="F114" s="11">
+        <v>0.65380000000000005</v>
+      </c>
+      <c r="G114" s="11"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="11">
+        <v>178</v>
+      </c>
+      <c r="B115" s="11">
         <v>84</v>
       </c>
-      <c r="B85" s="11">
-        <v>43</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="E85" s="11">
-        <v>1.0412999999999999</v>
-      </c>
-      <c r="F85" s="11">
-        <v>1.0116000000000001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
+      <c r="C115" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E115" s="11">
+        <v>1.3662000000000001</v>
+      </c>
+      <c r="F115" s="11">
+        <v>0.67969999999999997</v>
+      </c>
+      <c r="G115" s="11"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="11">
+        <v>179</v>
+      </c>
+      <c r="B116" s="11">
         <v>85</v>
       </c>
-      <c r="B86" s="2">
-        <v>14</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E86" s="2">
-        <v>1.6607000000000001</v>
-      </c>
-      <c r="F86" s="2">
-        <v>0.98499999999999999</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="11">
-        <v>86</v>
-      </c>
-      <c r="B87" s="11">
-        <v>46</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="E87" s="11">
-        <v>3.9809999999999999</v>
-      </c>
-      <c r="F87" s="11">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="11">
+      <c r="C116" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E116" s="11">
+        <v>5.6210000000000004</v>
+      </c>
+      <c r="F116" s="11">
+        <v>5.9462999999999999</v>
+      </c>
+      <c r="G116" s="11"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="11">
+        <v>184</v>
+      </c>
+      <c r="B117" s="11">
+        <v>84</v>
+      </c>
+      <c r="C117" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E117" s="11">
+        <v>1.843</v>
+      </c>
+      <c r="F117" s="11">
+        <v>1.6997</v>
+      </c>
+      <c r="G117" s="11"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="11">
+        <v>189</v>
+      </c>
+      <c r="B118" s="11">
         <v>87</v>
       </c>
-      <c r="B88" s="11">
-        <v>46</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D88" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="E88" s="11">
-        <v>3.7543000000000002</v>
-      </c>
-      <c r="F88" s="11">
-        <v>2.8919999999999999</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="11">
-        <v>88</v>
-      </c>
-      <c r="B89" s="11">
-        <v>46</v>
-      </c>
-      <c r="C89" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E89" s="11">
-        <v>3.5268000000000002</v>
-      </c>
-      <c r="F89" s="11">
-        <v>2.58</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="11">
+      <c r="C118" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E118" s="11">
+        <v>2.7867000000000002</v>
+      </c>
+      <c r="F118" s="11">
+        <v>2.7723</v>
+      </c>
+      <c r="G118" s="11"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="11">
+        <v>195</v>
+      </c>
+      <c r="B119" s="11">
         <v>89</v>
       </c>
-      <c r="B90" s="11">
-        <v>46</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D90" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E90" s="11">
-        <v>3.2993999999999999</v>
-      </c>
-      <c r="F90" s="11">
-        <v>2.3519999999999999</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
+      <c r="C119" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E119" s="11">
+        <v>3.9628000000000001</v>
+      </c>
+      <c r="F119" s="11">
+        <v>0.62139999999999995</v>
+      </c>
+      <c r="G119" s="11"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="11">
+        <v>196</v>
+      </c>
+      <c r="B120" s="11">
+        <v>90</v>
+      </c>
+      <c r="C120" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E120" s="11">
+        <v>2.1093999999999999</v>
+      </c>
+      <c r="F120" s="11">
+        <v>2.5106000000000002</v>
+      </c>
+      <c r="G120" s="11"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="11">
+        <v>197</v>
+      </c>
+      <c r="B121" s="11">
         <v>91</v>
       </c>
-      <c r="B91" s="2">
-        <v>47</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E91" s="2">
-        <v>1.4515</v>
-      </c>
-      <c r="F91" s="2">
-        <v>1.248</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
-        <v>92</v>
-      </c>
-      <c r="B92" s="2">
-        <v>47</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E92" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="F92" s="2">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
+      <c r="C121" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E121" s="11">
+        <v>3.371</v>
+      </c>
+      <c r="F121" s="11">
+        <v>2.0001000000000002</v>
+      </c>
+      <c r="G121" s="11"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="11">
+        <v>201</v>
+      </c>
+      <c r="B122" s="11">
         <v>93</v>
       </c>
-      <c r="B93" s="2">
-        <v>49</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E93" s="2">
-        <v>2.4617</v>
-      </c>
-      <c r="F93" s="2">
-        <v>2.1920000000000002</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
-        <v>94</v>
-      </c>
-      <c r="B94" s="2">
-        <v>49</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E94" s="2">
-        <v>2.4617</v>
-      </c>
-      <c r="F94" s="2">
-        <v>1.8420000000000001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
-        <v>100</v>
-      </c>
-      <c r="B95" s="2">
-        <v>47</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E95" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="F95" s="2">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
-        <v>101</v>
-      </c>
-      <c r="B96" s="2">
-        <v>48</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E96" s="2">
-        <v>2.4748000000000001</v>
-      </c>
-      <c r="F96" s="2">
-        <v>1.9642999999999999</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
-        <v>102</v>
-      </c>
-      <c r="B97" s="2">
-        <v>48</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E97" s="2">
-        <v>2.2738999999999998</v>
-      </c>
-      <c r="F97" s="2">
-        <v>1.5753999999999999</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
-        <v>103</v>
-      </c>
-      <c r="B98" s="2">
-        <v>48</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E98" s="2">
-        <v>2.0767000000000002</v>
-      </c>
-      <c r="F98" s="2">
-        <v>1.1866000000000001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="11">
-        <v>104</v>
-      </c>
-      <c r="B99" s="11">
-        <v>52</v>
-      </c>
-      <c r="C99" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E99" s="11">
-        <v>1.7943</v>
-      </c>
-      <c r="F99" s="11">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="11">
-        <v>105</v>
-      </c>
-      <c r="B100" s="11">
-        <v>52</v>
-      </c>
-      <c r="C100" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D100" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="E100" s="11">
-        <v>1.6282000000000001</v>
-      </c>
-      <c r="F100" s="11">
-        <v>1.06</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="11">
-        <v>106</v>
-      </c>
-      <c r="B101" s="11">
-        <v>52</v>
-      </c>
-      <c r="C101" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D101" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E101" s="11">
-        <v>1.4621</v>
-      </c>
-      <c r="F101" s="11">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
-        <v>107</v>
-      </c>
-      <c r="B102" s="2">
-        <v>53</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E102" s="2">
-        <v>1.3601000000000001</v>
-      </c>
-      <c r="F102" s="2">
-        <v>1.8030999999999999</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
-        <v>108</v>
-      </c>
-      <c r="B103" s="2">
-        <v>53</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E103" s="2">
-        <v>0.68300000000000005</v>
-      </c>
-      <c r="F103" s="2">
-        <v>0.34179999999999999</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
-        <v>109</v>
-      </c>
-      <c r="B104" s="2">
-        <v>53</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E104" s="2">
-        <v>0.91039999999999999</v>
-      </c>
-      <c r="F104" s="2">
-        <v>0.65380000000000005</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="2">
-        <v>110</v>
-      </c>
-      <c r="B105" s="2">
-        <v>56</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E105" s="2">
-        <v>2.6869999999999998</v>
-      </c>
-      <c r="F105" s="2">
-        <v>2.12</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
-        <v>111</v>
-      </c>
-      <c r="B106" s="2">
-        <v>56</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E106" s="2">
-        <v>2.46</v>
-      </c>
-      <c r="F106" s="2">
-        <v>1.8080000000000001</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
-        <v>112</v>
-      </c>
-      <c r="B107" s="2">
-        <v>55</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E107" s="2">
-        <v>2.42</v>
-      </c>
-      <c r="F107" s="2">
-        <v>2.4975999999999998</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="2">
-        <v>113</v>
-      </c>
-      <c r="B108" s="2">
-        <v>55</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E108" s="2">
-        <v>2.42</v>
-      </c>
-      <c r="F108" s="2">
-        <v>2.0017999999999998</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
-        <v>114</v>
-      </c>
-      <c r="B109" s="2">
-        <v>55</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E109" s="2">
-        <v>2.42</v>
-      </c>
-      <c r="F109" s="2">
-        <v>2.2496999999999998</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
-        <v>119</v>
-      </c>
-      <c r="B110" s="2">
-        <v>53</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E110" s="2">
-        <v>1.0629999999999999</v>
-      </c>
-      <c r="F110" s="2">
-        <v>1.123</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
-        <v>122</v>
-      </c>
-      <c r="B111" s="2">
-        <v>61</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E111" s="2">
-        <v>1.613</v>
-      </c>
-      <c r="F111" s="2">
-        <v>1.3680000000000001</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
-        <v>123</v>
-      </c>
-      <c r="B112" s="2">
-        <v>61</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E112" s="2">
-        <v>1.3863000000000001</v>
-      </c>
-      <c r="F112" s="2">
-        <v>1.06</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="2">
-        <v>124</v>
-      </c>
-      <c r="B113" s="2">
-        <v>61</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E113" s="2">
-        <v>1.1589</v>
-      </c>
-      <c r="F113" s="2">
-        <v>0.748</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="2">
-        <v>153</v>
-      </c>
-      <c r="B114" s="2">
-        <v>53</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E114" s="2">
-        <v>0.91039999999999999</v>
-      </c>
-      <c r="F114" s="2">
-        <v>0.65380000000000005</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
-        <v>178</v>
-      </c>
-      <c r="B115" s="2">
-        <v>84</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E115" s="2">
-        <v>1.3662000000000001</v>
-      </c>
-      <c r="F115" s="2">
-        <v>0.67969999999999997</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
-        <v>179</v>
-      </c>
-      <c r="B116" s="2">
-        <v>85</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E116" s="2">
-        <v>5.6210000000000004</v>
-      </c>
-      <c r="F116" s="2">
-        <v>5.9462999999999999</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="2">
-        <v>184</v>
-      </c>
-      <c r="B117" s="2">
-        <v>84</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E117" s="2">
-        <v>1.843</v>
-      </c>
-      <c r="F117" s="2">
-        <v>1.6997</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="2">
-        <v>189</v>
-      </c>
-      <c r="B118" s="2">
-        <v>87</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E118" s="2">
-        <v>2.7867000000000002</v>
-      </c>
-      <c r="F118" s="2">
-        <v>2.7723</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="2">
-        <v>195</v>
-      </c>
-      <c r="B119" s="2">
-        <v>89</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E119" s="2">
-        <v>3.9628000000000001</v>
-      </c>
-      <c r="F119" s="2">
-        <v>0.62139999999999995</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="2">
-        <v>196</v>
-      </c>
-      <c r="B120" s="2">
+      <c r="C122" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="E122" s="11">
+        <v>1.0678000000000001</v>
+      </c>
+      <c r="F122" s="11">
+        <v>2.2440000000000002</v>
+      </c>
+      <c r="G122" s="11"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="11">
+        <v>209</v>
+      </c>
+      <c r="B123" s="11">
+        <v>98</v>
+      </c>
+      <c r="C123" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E123" s="11">
+        <v>0.99029999999999996</v>
+      </c>
+      <c r="F123" s="11">
+        <v>3.5249000000000001</v>
+      </c>
+      <c r="G123" s="11"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="11">
+        <v>210</v>
+      </c>
+      <c r="B124" s="11">
+        <v>98</v>
+      </c>
+      <c r="C124" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E124" s="11">
+        <v>1.5653999999999999</v>
+      </c>
+      <c r="F124" s="11">
+        <v>3.8075999999999999</v>
+      </c>
+      <c r="G124" s="11"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="11">
+        <v>211</v>
+      </c>
+      <c r="B125" s="11">
+        <v>99</v>
+      </c>
+      <c r="C125" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E125" s="11">
+        <v>3.8182999999999998</v>
+      </c>
+      <c r="F125" s="11">
+        <v>3.6017999999999999</v>
+      </c>
+      <c r="G125" s="11"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="11">
+        <v>220</v>
+      </c>
+      <c r="B126" s="11">
         <v>90</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D120" s="2" t="s">
+      <c r="C126" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="E120" s="2">
-        <v>2.1093999999999999</v>
-      </c>
-      <c r="F120" s="2">
-        <v>2.5106000000000002</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="2">
-        <v>197</v>
-      </c>
-      <c r="B121" s="2">
-        <v>91</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E121" s="2">
-        <v>3.371</v>
-      </c>
-      <c r="F121" s="2">
-        <v>2.0001000000000002</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="2">
-        <v>201</v>
-      </c>
-      <c r="B122" s="2">
-        <v>93</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E122" s="2">
-        <v>1.0678000000000001</v>
-      </c>
-      <c r="F122" s="2">
-        <v>2.2440000000000002</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="2">
-        <v>209</v>
-      </c>
-      <c r="B123" s="2">
-        <v>98</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E123" s="2">
-        <v>0.99029999999999996</v>
-      </c>
-      <c r="F123" s="2">
-        <v>3.5249000000000001</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="2">
-        <v>210</v>
-      </c>
-      <c r="B124" s="2">
-        <v>98</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E124" s="2">
-        <v>1.5653999999999999</v>
-      </c>
-      <c r="F124" s="2">
-        <v>3.8075999999999999</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="2">
-        <v>211</v>
-      </c>
-      <c r="B125" s="2">
-        <v>99</v>
-      </c>
-      <c r="C125" s="2" t="s">
+      <c r="D126" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="D125" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E125" s="2">
-        <v>3.8182999999999998</v>
-      </c>
-      <c r="F125" s="2">
-        <v>3.6017999999999999</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="2">
-        <v>220</v>
-      </c>
-      <c r="B126" s="2">
-        <v>90</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E126" s="2">
+      <c r="E126" s="11">
         <v>2.4872999999999998</v>
       </c>
-      <c r="F126" s="2">
+      <c r="F126" s="11">
         <v>2.4457</v>
       </c>
+      <c r="G126" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F126" xr:uid="{BF4D867B-618B-4723-B55C-7CB1524BBBB1}"/>
@@ -20396,10 +20811,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -20408,10 +20822,10 @@
   <sheetData>
     <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>193</v>
@@ -20430,7 +20844,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
@@ -20449,7 +20863,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C3" s="7">
         <v>2</v>
@@ -20470,7 +20884,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C4" s="7">
         <v>3</v>
@@ -20496,14 +20910,16 @@
       <c r="J4" s="7">
         <v>52</v>
       </c>
-      <c r="K4" s="7"/>
+      <c r="K4" s="7">
+        <v>38</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C5" s="7">
         <v>5</v>
@@ -20526,7 +20942,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C6" s="7">
         <v>9</v>
@@ -20545,7 +20961,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C7" s="7">
         <v>10</v>
@@ -20564,7 +20980,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C8" s="7">
         <v>11</v>
@@ -20587,7 +21003,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C9" s="7">
         <v>13</v>
@@ -20606,7 +21022,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C10" s="7">
         <v>14</v>
@@ -20629,7 +21045,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C11" s="7">
         <v>19</v>
@@ -20648,7 +21064,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C12" s="7">
         <v>20</v>
@@ -20669,7 +21085,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C13" s="7">
         <v>37</v>
@@ -20704,7 +21120,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C14" s="7">
         <v>28</v>
@@ -20727,7 +21143,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C15" s="7">
         <v>34</v>
@@ -20746,7 +21162,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C16" s="7">
         <v>47</v>
@@ -20769,7 +21185,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C17" s="7">
         <v>42</v>
@@ -20788,7 +21204,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C18" s="7">
         <v>43</v>
@@ -20809,7 +21225,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C19" s="7">
         <v>53</v>
@@ -20828,7 +21244,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C20" s="7">
         <v>26</v>
@@ -20847,7 +21263,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C21" s="7">
         <v>7</v>
@@ -20866,7 +21282,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C22" s="7">
         <v>30</v>
@@ -20904,7 +21320,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C24" s="7">
         <v>36</v>
@@ -20920,6 +21336,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -20928,10 +21345,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
